--- a/Code/Results/Cases/Case_3_13/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_13/res_line/loading_percent.xlsx
@@ -412,37 +412,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.91228929249807</v>
+        <v>17.91228929249801</v>
       </c>
       <c r="C2">
-        <v>14.28237923506407</v>
+        <v>14.28237923506394</v>
       </c>
       <c r="D2">
-        <v>3.434362752603722</v>
+        <v>3.434362752603885</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>40.08020857484627</v>
+        <v>40.08020857484623</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>26.5803677501832</v>
+        <v>26.58036775018325</v>
       </c>
       <c r="I2">
-        <v>7.670134936018472</v>
+        <v>7.670134936018511</v>
       </c>
       <c r="J2">
-        <v>16.49471937259084</v>
+        <v>16.49471937259078</v>
       </c>
       <c r="K2">
         <v>10.11135266063177</v>
       </c>
       <c r="L2">
-        <v>14.21135390395416</v>
+        <v>14.21135390395413</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,37 +450,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.63984863162252</v>
+        <v>16.6398486316225</v>
       </c>
       <c r="C3">
-        <v>13.25912021920725</v>
+        <v>13.25912021920749</v>
       </c>
       <c r="D3">
-        <v>3.464725290534346</v>
+        <v>3.464725290534092</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>38.15938008984833</v>
+        <v>38.1593800898484</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>25.65485038501217</v>
+        <v>25.65485038501221</v>
       </c>
       <c r="I3">
         <v>7.566792120635236</v>
       </c>
       <c r="J3">
-        <v>15.351685071329</v>
+        <v>15.35168507132905</v>
       </c>
       <c r="K3">
-        <v>9.62340461881683</v>
+        <v>9.623404618816824</v>
       </c>
       <c r="L3">
-        <v>13.23162195263996</v>
+        <v>13.23162195263997</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,37 +488,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.81858697464893</v>
+        <v>15.81858697464895</v>
       </c>
       <c r="C4">
-        <v>12.60000916574927</v>
+        <v>12.60000916574931</v>
       </c>
       <c r="D4">
-        <v>3.48373877582655</v>
+        <v>3.483738775826375</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>36.96942092851521</v>
+        <v>36.96942092851526</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>25.09261257821314</v>
+        <v>25.09261257821315</v>
       </c>
       <c r="I4">
-        <v>7.507474667070367</v>
+        <v>7.507474667070303</v>
       </c>
       <c r="J4">
-        <v>14.61468427479742</v>
+        <v>14.61468427479745</v>
       </c>
       <c r="K4">
-        <v>9.320813507112668</v>
+        <v>9.320813507112648</v>
       </c>
       <c r="L4">
-        <v>12.60028309703842</v>
+        <v>12.60028309703846</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,37 +526,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.47369817485234</v>
+        <v>15.47369817485233</v>
       </c>
       <c r="C5">
-        <v>12.3235142897601</v>
+        <v>12.32351428976012</v>
       </c>
       <c r="D5">
-        <v>3.491575062734553</v>
+        <v>3.491575062734503</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>36.48225035963394</v>
+        <v>36.48225035963393</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>24.86512346177411</v>
+        <v>24.86512346177407</v>
       </c>
       <c r="I5">
-        <v>7.484306995994713</v>
+        <v>7.484306995994598</v>
       </c>
       <c r="J5">
-        <v>14.30536220043111</v>
+        <v>14.3053622004311</v>
       </c>
       <c r="K5">
-        <v>9.196877002850774</v>
+        <v>9.196877002850751</v>
       </c>
       <c r="L5">
-        <v>12.33540182074581</v>
+        <v>12.33540182074586</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,37 +564,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.41580786224509</v>
+        <v>15.41580786224514</v>
       </c>
       <c r="C6">
-        <v>12.27712106328565</v>
+        <v>12.27712106328556</v>
       </c>
       <c r="D6">
-        <v>3.492881465432544</v>
+        <v>3.492881465432657</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>36.40123371211294</v>
+        <v>36.40123371211285</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>24.82745099821092</v>
+        <v>24.82745099821082</v>
       </c>
       <c r="I6">
-        <v>7.48051968177615</v>
+        <v>7.480519681776133</v>
       </c>
       <c r="J6">
-        <v>14.25345265799025</v>
+        <v>14.25345265799026</v>
       </c>
       <c r="K6">
-        <v>9.17626363419128</v>
+        <v>9.176263634191276</v>
       </c>
       <c r="L6">
-        <v>12.29095591388983</v>
+        <v>12.29095591388988</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,37 +602,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.81397726773664</v>
+        <v>15.81397726773661</v>
       </c>
       <c r="C7">
-        <v>12.59631244521628</v>
+        <v>12.59631244521625</v>
       </c>
       <c r="D7">
-        <v>3.483844107867554</v>
+        <v>3.483844107867423</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>36.96285929084905</v>
+        <v>36.96285929084914</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>25.08953782938713</v>
+        <v>25.08953782938719</v>
       </c>
       <c r="I7">
-        <v>7.507158197990845</v>
+        <v>7.507158197990882</v>
       </c>
       <c r="J7">
-        <v>14.61054922404845</v>
+        <v>14.61054922404841</v>
       </c>
       <c r="K7">
-        <v>9.31914441651654</v>
+        <v>9.319144416516592</v>
       </c>
       <c r="L7">
-        <v>12.59674175734122</v>
+        <v>12.59674175734115</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,37 +640,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.48174646066302</v>
+        <v>17.48174646066298</v>
       </c>
       <c r="C8">
-        <v>13.93586373926676</v>
+        <v>13.9358637392669</v>
       </c>
       <c r="D8">
-        <v>3.444751408062524</v>
+        <v>3.444751408062456</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>39.42030975261194</v>
+        <v>39.42030975261184</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>26.26005528946009</v>
+        <v>26.26005528946004</v>
       </c>
       <c r="I8">
-        <v>7.633622556876802</v>
+        <v>7.633622556876733</v>
       </c>
       <c r="J8">
-        <v>16.10781100413936</v>
+        <v>16.1078110041394</v>
       </c>
       <c r="K8">
-        <v>9.943794013757742</v>
+        <v>9.943794013757689</v>
       </c>
       <c r="L8">
-        <v>13.87964885815679</v>
+        <v>13.87964885815683</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,37 +678,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.44306873817772</v>
+        <v>20.44306873817771</v>
       </c>
       <c r="C9">
-        <v>16.3254898783888</v>
+        <v>16.3254898783889</v>
       </c>
       <c r="D9">
-        <v>3.371324874993192</v>
+        <v>3.371324874993125</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>44.14339149831798</v>
+        <v>44.14339149831793</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>28.60007995698916</v>
+        <v>28.6000799569891</v>
       </c>
       <c r="I9">
-        <v>7.916087277137748</v>
+        <v>7.916087277137769</v>
       </c>
       <c r="J9">
-        <v>18.77201106385066</v>
+        <v>18.77201106385065</v>
       </c>
       <c r="K9">
-        <v>11.14108689876464</v>
+        <v>11.14108689876465</v>
       </c>
       <c r="L9">
-        <v>16.16506003316526</v>
+        <v>16.16506003316524</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,37 +716,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.4425060450784</v>
+        <v>22.44250604507832</v>
       </c>
       <c r="C10">
-        <v>17.9478031968292</v>
+        <v>17.94780319682921</v>
       </c>
       <c r="D10">
-        <v>3.319883029834937</v>
+        <v>3.319883029834683</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>47.54713341278469</v>
+        <v>47.54713341278465</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>30.34523069061407</v>
+        <v>30.34523069061405</v>
       </c>
       <c r="I10">
-        <v>8.147109374120236</v>
+        <v>8.147109374120143</v>
       </c>
       <c r="J10">
-        <v>20.57471298077749</v>
+        <v>20.57471298077744</v>
       </c>
       <c r="K10">
         <v>12.0008588726964</v>
       </c>
       <c r="L10">
-        <v>17.71297151723371</v>
+        <v>17.71297151723365</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,37 +754,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.31688741003211</v>
+        <v>23.31688741003205</v>
       </c>
       <c r="C11">
-        <v>18.65972637274642</v>
+        <v>18.65972637274661</v>
       </c>
       <c r="D11">
-        <v>3.29719202116183</v>
+        <v>3.297192021161709</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>49.0820304960838</v>
+        <v>49.08203049608376</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>31.14552861666582</v>
+        <v>31.14552861666576</v>
       </c>
       <c r="I11">
-        <v>8.257930749782611</v>
+        <v>8.257930749782584</v>
       </c>
       <c r="J11">
-        <v>21.364037252925</v>
+        <v>21.36403725292499</v>
       </c>
       <c r="K11">
-        <v>12.43893331918416</v>
+        <v>12.43893331918417</v>
       </c>
       <c r="L11">
-        <v>18.39104019087308</v>
+        <v>18.39104019087306</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,37 +792,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.64322236646292</v>
+        <v>23.64322236646285</v>
       </c>
       <c r="C12">
-        <v>18.92583351250324</v>
+        <v>18.92583351250307</v>
       </c>
       <c r="D12">
-        <v>3.288720539435229</v>
+        <v>3.288720539435322</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>49.66155468903642</v>
+        <v>49.66155468903631</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>31.44964420749176</v>
+        <v>31.44964420749168</v>
       </c>
       <c r="I12">
-        <v>8.300779262791764</v>
+        <v>8.300779262791746</v>
       </c>
       <c r="J12">
-        <v>21.65878169552325</v>
+        <v>21.65878169552317</v>
       </c>
       <c r="K12">
-        <v>12.61801345263513</v>
+        <v>12.61801345263512</v>
       </c>
       <c r="L12">
-        <v>18.64428156082965</v>
+        <v>18.64428156082962</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,37 +830,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.57314774601162</v>
+        <v>23.57314774601149</v>
       </c>
       <c r="C13">
-        <v>18.86867285514984</v>
+        <v>18.86867285514953</v>
       </c>
       <c r="D13">
-        <v>3.290539284614981</v>
+        <v>3.290539284615017</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>49.53681459284592</v>
+        <v>49.53681459284574</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>31.3840973808056</v>
+        <v>31.38409738080546</v>
       </c>
       <c r="I13">
-        <v>8.291510765352273</v>
+        <v>8.291510765352225</v>
       </c>
       <c r="J13">
-        <v>21.59548345741399</v>
+        <v>21.59548345741387</v>
       </c>
       <c r="K13">
-        <v>12.57954852593698</v>
+        <v>12.57954852593697</v>
       </c>
       <c r="L13">
-        <v>18.58989458403165</v>
+        <v>18.58989458403158</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,37 +868,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.34382912017282</v>
+        <v>23.34382912017285</v>
       </c>
       <c r="C14">
-        <v>18.68168731549374</v>
+        <v>18.68168731549383</v>
       </c>
       <c r="D14">
-        <v>3.296492514337986</v>
+        <v>3.296492514338042</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>49.12974071657946</v>
+        <v>49.12974071657955</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>31.17052610525024</v>
+        <v>31.17052610525028</v>
       </c>
       <c r="I14">
         <v>8.261437858319066</v>
       </c>
       <c r="J14">
-        <v>21.38836770624114</v>
+        <v>21.38836770624115</v>
       </c>
       <c r="K14">
-        <v>12.45371311286303</v>
+        <v>12.45371311286304</v>
       </c>
       <c r="L14">
-        <v>18.41194385204105</v>
+        <v>18.41194385204106</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -909,34 +909,34 @@
         <v>23.20275208649682</v>
       </c>
       <c r="C15">
-        <v>18.56670822145385</v>
+        <v>18.56670822145371</v>
       </c>
       <c r="D15">
-        <v>3.300155455511619</v>
+        <v>3.300155455511545</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>48.88018298492259</v>
+        <v>48.88018298492264</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>31.03985086378744</v>
+        <v>31.0398508637875</v>
       </c>
       <c r="I15">
-        <v>8.243134215195337</v>
+        <v>8.243134215195296</v>
       </c>
       <c r="J15">
-        <v>21.26097056262662</v>
+        <v>21.26097056262655</v>
       </c>
       <c r="K15">
-        <v>12.3763300439827</v>
+        <v>12.37633004398264</v>
       </c>
       <c r="L15">
-        <v>18.30249145711962</v>
+        <v>18.30249145711957</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,37 +944,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.3846788751579</v>
+        <v>22.3846788751578</v>
       </c>
       <c r="C16">
-        <v>17.90077470139786</v>
+        <v>17.90077470139764</v>
       </c>
       <c r="D16">
-        <v>3.321381750503493</v>
+        <v>3.32138175050355</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>47.4465695863782</v>
+        <v>47.44656958637819</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>30.29306865271584</v>
+        <v>30.29306865271586</v>
       </c>
       <c r="I16">
-        <v>8.139987065791818</v>
+        <v>8.139987065791756</v>
       </c>
       <c r="J16">
-        <v>20.52253215844721</v>
+        <v>20.52253215844707</v>
       </c>
       <c r="K16">
-        <v>11.97549555940275</v>
+        <v>11.97549555940274</v>
       </c>
       <c r="L16">
-        <v>17.66815163026201</v>
+        <v>17.668151630262</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,37 +982,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.87400027307801</v>
+        <v>21.87400027307806</v>
       </c>
       <c r="C17">
-        <v>17.4857472143026</v>
+        <v>17.48574721430263</v>
       </c>
       <c r="D17">
-        <v>3.33459739529478</v>
+        <v>3.334597395294542</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>46.56376234151367</v>
+        <v>46.56376234151379</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>29.83666214312392</v>
+        <v>29.83666214312393</v>
       </c>
       <c r="I17">
-        <v>8.078216245589909</v>
+        <v>8.07821624558988</v>
       </c>
       <c r="J17">
-        <v>20.06183012870725</v>
+        <v>20.06183012870731</v>
       </c>
       <c r="K17">
-        <v>11.75273970865595</v>
+        <v>11.75273970865596</v>
       </c>
       <c r="L17">
-        <v>17.27247354123565</v>
+        <v>17.27247354123571</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,37 +1020,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.57694202664168</v>
+        <v>21.57694202664167</v>
       </c>
       <c r="C18">
-        <v>17.24456226494706</v>
+        <v>17.24456226494686</v>
       </c>
       <c r="D18">
-        <v>3.342264146877283</v>
+        <v>3.342264146877213</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>46.0547039427286</v>
+        <v>46.05470394272844</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>29.57474130821029</v>
+        <v>29.5747413082102</v>
       </c>
       <c r="I18">
-        <v>8.043222487888787</v>
+        <v>8.043222487888684</v>
       </c>
       <c r="J18">
-        <v>19.79393608491192</v>
+        <v>19.79393608491186</v>
       </c>
       <c r="K18">
         <v>11.62420776534927</v>
       </c>
       <c r="L18">
-        <v>17.04241997069141</v>
+        <v>17.04241997069139</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,37 +1058,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.47578327627871</v>
+        <v>21.47578327627872</v>
       </c>
       <c r="C19">
-        <v>17.16246899691853</v>
+        <v>17.16246899691862</v>
       </c>
       <c r="D19">
-        <v>3.344870714597994</v>
+        <v>3.344870714598172</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>45.88211897160278</v>
+        <v>45.88211897160272</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>29.48615805910292</v>
+        <v>29.48615805910286</v>
       </c>
       <c r="I19">
-        <v>8.031464455366608</v>
+        <v>8.031464455366635</v>
       </c>
       <c r="J19">
-        <v>19.70272438025006</v>
+        <v>19.70272438025009</v>
       </c>
       <c r="K19">
-        <v>11.58061816671699</v>
+        <v>11.58061816671701</v>
       </c>
       <c r="L19">
-        <v>16.96409723237852</v>
+        <v>16.96409723237857</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,34 +1096,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.92870551741154</v>
+        <v>21.92870551741155</v>
       </c>
       <c r="C20">
-        <v>17.53018162564572</v>
+        <v>17.53018162564566</v>
       </c>
       <c r="D20">
-        <v>3.333183669186205</v>
+        <v>3.333183669186378</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>46.65787105887064</v>
+        <v>46.65787105887063</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>29.88518534235766</v>
+        <v>29.8851853423577</v>
       </c>
       <c r="I20">
-        <v>8.084736064112102</v>
+        <v>8.084736064112121</v>
       </c>
       <c r="J20">
-        <v>20.11117205591967</v>
+        <v>20.11117205591966</v>
       </c>
       <c r="K20">
-        <v>11.77649455475018</v>
+        <v>11.77649455475017</v>
       </c>
       <c r="L20">
         <v>17.3148482627391</v>
@@ -1134,37 +1134,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.41131270106415</v>
+        <v>23.41131270106399</v>
       </c>
       <c r="C21">
-        <v>18.73670172399936</v>
+        <v>18.73670172399924</v>
       </c>
       <c r="D21">
-        <v>3.294740444623166</v>
+        <v>3.294740444623157</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>49.24935201003993</v>
+        <v>49.24935201003979</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>31.23322694993489</v>
+        <v>31.23322694993486</v>
       </c>
       <c r="I21">
-        <v>8.270246523815706</v>
+        <v>8.270246523815645</v>
       </c>
       <c r="J21">
-        <v>21.44931313118038</v>
+        <v>21.4493131311802</v>
       </c>
       <c r="K21">
-        <v>12.49073731151251</v>
+        <v>12.49073731151254</v>
       </c>
       <c r="L21">
-        <v>18.46430614440995</v>
+        <v>18.46430614440989</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,37 +1172,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>24.35261170425256</v>
+        <v>24.3526117042525</v>
       </c>
       <c r="C22">
-        <v>19.50508218804091</v>
+        <v>19.5050821880408</v>
       </c>
       <c r="D22">
-        <v>3.270333953049234</v>
+        <v>3.270333953049135</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>50.933287126768</v>
+        <v>50.93328712676778</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>32.12054571684364</v>
+        <v>32.12054571684354</v>
       </c>
       <c r="I22">
-        <v>8.396668642050214</v>
+        <v>8.396668642050219</v>
       </c>
       <c r="J22">
-        <v>22.29979209092118</v>
+        <v>22.29979209092116</v>
       </c>
       <c r="K22">
-        <v>13.00773564557376</v>
+        <v>13.00773564557374</v>
       </c>
       <c r="L22">
-        <v>19.1951011652586</v>
+        <v>19.19510116525859</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,34 +1210,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.85265155299771</v>
+        <v>23.85265155299773</v>
       </c>
       <c r="C23">
-        <v>19.09672938263248</v>
+        <v>19.09672938263227</v>
       </c>
       <c r="D23">
-        <v>3.283286857083251</v>
+        <v>3.283286857083233</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>50.0353183420419</v>
+        <v>50.03531834204173</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>31.64632671537949</v>
+        <v>31.6463267153794</v>
       </c>
       <c r="I23">
-        <v>8.328698803772006</v>
+        <v>8.328698803771948</v>
       </c>
       <c r="J23">
-        <v>21.84798186413014</v>
+        <v>21.84798186413007</v>
       </c>
       <c r="K23">
-        <v>12.73300678778868</v>
+        <v>12.7330067877887</v>
       </c>
       <c r="L23">
         <v>18.80685138588358</v>
@@ -1248,37 +1248,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.90398408174355</v>
+        <v>21.90398408174344</v>
       </c>
       <c r="C24">
-        <v>17.51010088446148</v>
+        <v>17.51010088446151</v>
       </c>
       <c r="D24">
-        <v>3.33382260152857</v>
+        <v>3.333822601528565</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>46.61532926021196</v>
+        <v>46.61532926021194</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>29.86324653901987</v>
+        <v>29.86324653901989</v>
       </c>
       <c r="I24">
-        <v>8.081786841591544</v>
+        <v>8.081786841591553</v>
       </c>
       <c r="J24">
-        <v>20.08887402885095</v>
+        <v>20.08887402885089</v>
       </c>
       <c r="K24">
-        <v>11.76575644496073</v>
+        <v>11.76575644496072</v>
       </c>
       <c r="L24">
-        <v>17.2956986817713</v>
+        <v>17.29569868177123</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,37 +1286,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.67385606157717</v>
+        <v>19.6738560615771</v>
       </c>
       <c r="C25">
-        <v>15.70333226122176</v>
+        <v>15.70333226122171</v>
       </c>
       <c r="D25">
-        <v>3.390795477702607</v>
+        <v>3.390795477702491</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>42.87718801115262</v>
+        <v>42.87718801115267</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>27.962557066607</v>
+        <v>27.96255706660705</v>
       </c>
       <c r="I25">
-        <v>7.835738951657838</v>
+        <v>7.835738951657762</v>
       </c>
       <c r="J25">
-        <v>18.07931105715398</v>
+        <v>18.07931105715388</v>
       </c>
       <c r="K25">
-        <v>10.82057388251743</v>
+        <v>10.82057388251742</v>
       </c>
       <c r="L25">
-        <v>15.57056384708918</v>
+        <v>15.57056384708916</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_13/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_13/res_line/loading_percent.xlsx
@@ -412,37 +412,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.91228929249801</v>
+        <v>17.91228929249807</v>
       </c>
       <c r="C2">
-        <v>14.28237923506394</v>
+        <v>14.28237923506407</v>
       </c>
       <c r="D2">
-        <v>3.434362752603885</v>
+        <v>3.434362752603722</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>40.08020857484623</v>
+        <v>40.08020857484627</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>26.58036775018325</v>
+        <v>26.5803677501832</v>
       </c>
       <c r="I2">
-        <v>7.670134936018511</v>
+        <v>7.670134936018472</v>
       </c>
       <c r="J2">
-        <v>16.49471937259078</v>
+        <v>16.49471937259084</v>
       </c>
       <c r="K2">
         <v>10.11135266063177</v>
       </c>
       <c r="L2">
-        <v>14.21135390395413</v>
+        <v>14.21135390395416</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,37 +450,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.6398486316225</v>
+        <v>16.63984863162252</v>
       </c>
       <c r="C3">
-        <v>13.25912021920749</v>
+        <v>13.25912021920725</v>
       </c>
       <c r="D3">
-        <v>3.464725290534092</v>
+        <v>3.464725290534346</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>38.1593800898484</v>
+        <v>38.15938008984833</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>25.65485038501221</v>
+        <v>25.65485038501217</v>
       </c>
       <c r="I3">
         <v>7.566792120635236</v>
       </c>
       <c r="J3">
-        <v>15.35168507132905</v>
+        <v>15.351685071329</v>
       </c>
       <c r="K3">
-        <v>9.623404618816824</v>
+        <v>9.62340461881683</v>
       </c>
       <c r="L3">
-        <v>13.23162195263997</v>
+        <v>13.23162195263996</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,37 +488,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.81858697464895</v>
+        <v>15.81858697464893</v>
       </c>
       <c r="C4">
-        <v>12.60000916574931</v>
+        <v>12.60000916574927</v>
       </c>
       <c r="D4">
-        <v>3.483738775826375</v>
+        <v>3.48373877582655</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>36.96942092851526</v>
+        <v>36.96942092851521</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>25.09261257821315</v>
+        <v>25.09261257821314</v>
       </c>
       <c r="I4">
-        <v>7.507474667070303</v>
+        <v>7.507474667070367</v>
       </c>
       <c r="J4">
-        <v>14.61468427479745</v>
+        <v>14.61468427479742</v>
       </c>
       <c r="K4">
-        <v>9.320813507112648</v>
+        <v>9.320813507112668</v>
       </c>
       <c r="L4">
-        <v>12.60028309703846</v>
+        <v>12.60028309703842</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,37 +526,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.47369817485233</v>
+        <v>15.47369817485234</v>
       </c>
       <c r="C5">
-        <v>12.32351428976012</v>
+        <v>12.3235142897601</v>
       </c>
       <c r="D5">
-        <v>3.491575062734503</v>
+        <v>3.491575062734553</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>36.48225035963393</v>
+        <v>36.48225035963394</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>24.86512346177407</v>
+        <v>24.86512346177411</v>
       </c>
       <c r="I5">
-        <v>7.484306995994598</v>
+        <v>7.484306995994713</v>
       </c>
       <c r="J5">
-        <v>14.3053622004311</v>
+        <v>14.30536220043111</v>
       </c>
       <c r="K5">
-        <v>9.196877002850751</v>
+        <v>9.196877002850774</v>
       </c>
       <c r="L5">
-        <v>12.33540182074586</v>
+        <v>12.33540182074581</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,37 +564,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.41580786224514</v>
+        <v>15.41580786224509</v>
       </c>
       <c r="C6">
-        <v>12.27712106328556</v>
+        <v>12.27712106328565</v>
       </c>
       <c r="D6">
-        <v>3.492881465432657</v>
+        <v>3.492881465432544</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>36.40123371211285</v>
+        <v>36.40123371211294</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>24.82745099821082</v>
+        <v>24.82745099821092</v>
       </c>
       <c r="I6">
-        <v>7.480519681776133</v>
+        <v>7.48051968177615</v>
       </c>
       <c r="J6">
-        <v>14.25345265799026</v>
+        <v>14.25345265799025</v>
       </c>
       <c r="K6">
-        <v>9.176263634191276</v>
+        <v>9.17626363419128</v>
       </c>
       <c r="L6">
-        <v>12.29095591388988</v>
+        <v>12.29095591388983</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,37 +602,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.81397726773661</v>
+        <v>15.81397726773664</v>
       </c>
       <c r="C7">
-        <v>12.59631244521625</v>
+        <v>12.59631244521628</v>
       </c>
       <c r="D7">
-        <v>3.483844107867423</v>
+        <v>3.483844107867554</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>36.96285929084914</v>
+        <v>36.96285929084905</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>25.08953782938719</v>
+        <v>25.08953782938713</v>
       </c>
       <c r="I7">
-        <v>7.507158197990882</v>
+        <v>7.507158197990845</v>
       </c>
       <c r="J7">
-        <v>14.61054922404841</v>
+        <v>14.61054922404845</v>
       </c>
       <c r="K7">
-        <v>9.319144416516592</v>
+        <v>9.31914441651654</v>
       </c>
       <c r="L7">
-        <v>12.59674175734115</v>
+        <v>12.59674175734122</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,37 +640,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.48174646066298</v>
+        <v>17.48174646066302</v>
       </c>
       <c r="C8">
-        <v>13.9358637392669</v>
+        <v>13.93586373926676</v>
       </c>
       <c r="D8">
-        <v>3.444751408062456</v>
+        <v>3.444751408062524</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>39.42030975261184</v>
+        <v>39.42030975261194</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>26.26005528946004</v>
+        <v>26.26005528946009</v>
       </c>
       <c r="I8">
-        <v>7.633622556876733</v>
+        <v>7.633622556876802</v>
       </c>
       <c r="J8">
-        <v>16.1078110041394</v>
+        <v>16.10781100413936</v>
       </c>
       <c r="K8">
-        <v>9.943794013757689</v>
+        <v>9.943794013757742</v>
       </c>
       <c r="L8">
-        <v>13.87964885815683</v>
+        <v>13.87964885815679</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,37 +678,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.44306873817771</v>
+        <v>20.44306873817772</v>
       </c>
       <c r="C9">
-        <v>16.3254898783889</v>
+        <v>16.3254898783888</v>
       </c>
       <c r="D9">
-        <v>3.371324874993125</v>
+        <v>3.371324874993192</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>44.14339149831793</v>
+        <v>44.14339149831798</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>28.6000799569891</v>
+        <v>28.60007995698916</v>
       </c>
       <c r="I9">
-        <v>7.916087277137769</v>
+        <v>7.916087277137748</v>
       </c>
       <c r="J9">
-        <v>18.77201106385065</v>
+        <v>18.77201106385066</v>
       </c>
       <c r="K9">
-        <v>11.14108689876465</v>
+        <v>11.14108689876464</v>
       </c>
       <c r="L9">
-        <v>16.16506003316524</v>
+        <v>16.16506003316526</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,37 +716,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.44250604507832</v>
+        <v>22.4425060450784</v>
       </c>
       <c r="C10">
-        <v>17.94780319682921</v>
+        <v>17.9478031968292</v>
       </c>
       <c r="D10">
-        <v>3.319883029834683</v>
+        <v>3.319883029834937</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>47.54713341278465</v>
+        <v>47.54713341278469</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>30.34523069061405</v>
+        <v>30.34523069061407</v>
       </c>
       <c r="I10">
-        <v>8.147109374120143</v>
+        <v>8.147109374120236</v>
       </c>
       <c r="J10">
-        <v>20.57471298077744</v>
+        <v>20.57471298077749</v>
       </c>
       <c r="K10">
         <v>12.0008588726964</v>
       </c>
       <c r="L10">
-        <v>17.71297151723365</v>
+        <v>17.71297151723371</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,37 +754,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.31688741003205</v>
+        <v>23.31688741003211</v>
       </c>
       <c r="C11">
-        <v>18.65972637274661</v>
+        <v>18.65972637274642</v>
       </c>
       <c r="D11">
-        <v>3.297192021161709</v>
+        <v>3.29719202116183</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>49.08203049608376</v>
+        <v>49.0820304960838</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>31.14552861666576</v>
+        <v>31.14552861666582</v>
       </c>
       <c r="I11">
-        <v>8.257930749782584</v>
+        <v>8.257930749782611</v>
       </c>
       <c r="J11">
-        <v>21.36403725292499</v>
+        <v>21.364037252925</v>
       </c>
       <c r="K11">
-        <v>12.43893331918417</v>
+        <v>12.43893331918416</v>
       </c>
       <c r="L11">
-        <v>18.39104019087306</v>
+        <v>18.39104019087308</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,37 +792,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.64322236646285</v>
+        <v>23.64322236646292</v>
       </c>
       <c r="C12">
-        <v>18.92583351250307</v>
+        <v>18.92583351250324</v>
       </c>
       <c r="D12">
-        <v>3.288720539435322</v>
+        <v>3.288720539435229</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>49.66155468903631</v>
+        <v>49.66155468903642</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>31.44964420749168</v>
+        <v>31.44964420749176</v>
       </c>
       <c r="I12">
-        <v>8.300779262791746</v>
+        <v>8.300779262791764</v>
       </c>
       <c r="J12">
-        <v>21.65878169552317</v>
+        <v>21.65878169552325</v>
       </c>
       <c r="K12">
-        <v>12.61801345263512</v>
+        <v>12.61801345263513</v>
       </c>
       <c r="L12">
-        <v>18.64428156082962</v>
+        <v>18.64428156082965</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,37 +830,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.57314774601149</v>
+        <v>23.57314774601162</v>
       </c>
       <c r="C13">
-        <v>18.86867285514953</v>
+        <v>18.86867285514984</v>
       </c>
       <c r="D13">
-        <v>3.290539284615017</v>
+        <v>3.290539284614981</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>49.53681459284574</v>
+        <v>49.53681459284592</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>31.38409738080546</v>
+        <v>31.3840973808056</v>
       </c>
       <c r="I13">
-        <v>8.291510765352225</v>
+        <v>8.291510765352273</v>
       </c>
       <c r="J13">
-        <v>21.59548345741387</v>
+        <v>21.59548345741399</v>
       </c>
       <c r="K13">
-        <v>12.57954852593697</v>
+        <v>12.57954852593698</v>
       </c>
       <c r="L13">
-        <v>18.58989458403158</v>
+        <v>18.58989458403165</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,37 +868,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.34382912017285</v>
+        <v>23.34382912017282</v>
       </c>
       <c r="C14">
-        <v>18.68168731549383</v>
+        <v>18.68168731549374</v>
       </c>
       <c r="D14">
-        <v>3.296492514338042</v>
+        <v>3.296492514337986</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>49.12974071657955</v>
+        <v>49.12974071657946</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>31.17052610525028</v>
+        <v>31.17052610525024</v>
       </c>
       <c r="I14">
         <v>8.261437858319066</v>
       </c>
       <c r="J14">
-        <v>21.38836770624115</v>
+        <v>21.38836770624114</v>
       </c>
       <c r="K14">
-        <v>12.45371311286304</v>
+        <v>12.45371311286303</v>
       </c>
       <c r="L14">
-        <v>18.41194385204106</v>
+        <v>18.41194385204105</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -909,34 +909,34 @@
         <v>23.20275208649682</v>
       </c>
       <c r="C15">
-        <v>18.56670822145371</v>
+        <v>18.56670822145385</v>
       </c>
       <c r="D15">
-        <v>3.300155455511545</v>
+        <v>3.300155455511619</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>48.88018298492264</v>
+        <v>48.88018298492259</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>31.0398508637875</v>
+        <v>31.03985086378744</v>
       </c>
       <c r="I15">
-        <v>8.243134215195296</v>
+        <v>8.243134215195337</v>
       </c>
       <c r="J15">
-        <v>21.26097056262655</v>
+        <v>21.26097056262662</v>
       </c>
       <c r="K15">
-        <v>12.37633004398264</v>
+        <v>12.3763300439827</v>
       </c>
       <c r="L15">
-        <v>18.30249145711957</v>
+        <v>18.30249145711962</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,37 +944,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.3846788751578</v>
+        <v>22.3846788751579</v>
       </c>
       <c r="C16">
-        <v>17.90077470139764</v>
+        <v>17.90077470139786</v>
       </c>
       <c r="D16">
-        <v>3.32138175050355</v>
+        <v>3.321381750503493</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>47.44656958637819</v>
+        <v>47.4465695863782</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>30.29306865271586</v>
+        <v>30.29306865271584</v>
       </c>
       <c r="I16">
-        <v>8.139987065791756</v>
+        <v>8.139987065791818</v>
       </c>
       <c r="J16">
-        <v>20.52253215844707</v>
+        <v>20.52253215844721</v>
       </c>
       <c r="K16">
-        <v>11.97549555940274</v>
+        <v>11.97549555940275</v>
       </c>
       <c r="L16">
-        <v>17.668151630262</v>
+        <v>17.66815163026201</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,37 +982,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.87400027307806</v>
+        <v>21.87400027307801</v>
       </c>
       <c r="C17">
-        <v>17.48574721430263</v>
+        <v>17.4857472143026</v>
       </c>
       <c r="D17">
-        <v>3.334597395294542</v>
+        <v>3.33459739529478</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>46.56376234151379</v>
+        <v>46.56376234151367</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>29.83666214312393</v>
+        <v>29.83666214312392</v>
       </c>
       <c r="I17">
-        <v>8.07821624558988</v>
+        <v>8.078216245589909</v>
       </c>
       <c r="J17">
-        <v>20.06183012870731</v>
+        <v>20.06183012870725</v>
       </c>
       <c r="K17">
-        <v>11.75273970865596</v>
+        <v>11.75273970865595</v>
       </c>
       <c r="L17">
-        <v>17.27247354123571</v>
+        <v>17.27247354123565</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,37 +1020,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.57694202664167</v>
+        <v>21.57694202664168</v>
       </c>
       <c r="C18">
-        <v>17.24456226494686</v>
+        <v>17.24456226494706</v>
       </c>
       <c r="D18">
-        <v>3.342264146877213</v>
+        <v>3.342264146877283</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>46.05470394272844</v>
+        <v>46.0547039427286</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>29.5747413082102</v>
+        <v>29.57474130821029</v>
       </c>
       <c r="I18">
-        <v>8.043222487888684</v>
+        <v>8.043222487888787</v>
       </c>
       <c r="J18">
-        <v>19.79393608491186</v>
+        <v>19.79393608491192</v>
       </c>
       <c r="K18">
         <v>11.62420776534927</v>
       </c>
       <c r="L18">
-        <v>17.04241997069139</v>
+        <v>17.04241997069141</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,37 +1058,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.47578327627872</v>
+        <v>21.47578327627871</v>
       </c>
       <c r="C19">
-        <v>17.16246899691862</v>
+        <v>17.16246899691853</v>
       </c>
       <c r="D19">
-        <v>3.344870714598172</v>
+        <v>3.344870714597994</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>45.88211897160272</v>
+        <v>45.88211897160278</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>29.48615805910286</v>
+        <v>29.48615805910292</v>
       </c>
       <c r="I19">
-        <v>8.031464455366635</v>
+        <v>8.031464455366608</v>
       </c>
       <c r="J19">
-        <v>19.70272438025009</v>
+        <v>19.70272438025006</v>
       </c>
       <c r="K19">
-        <v>11.58061816671701</v>
+        <v>11.58061816671699</v>
       </c>
       <c r="L19">
-        <v>16.96409723237857</v>
+        <v>16.96409723237852</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,34 +1096,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.92870551741155</v>
+        <v>21.92870551741154</v>
       </c>
       <c r="C20">
-        <v>17.53018162564566</v>
+        <v>17.53018162564572</v>
       </c>
       <c r="D20">
-        <v>3.333183669186378</v>
+        <v>3.333183669186205</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>46.65787105887063</v>
+        <v>46.65787105887064</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>29.8851853423577</v>
+        <v>29.88518534235766</v>
       </c>
       <c r="I20">
-        <v>8.084736064112121</v>
+        <v>8.084736064112102</v>
       </c>
       <c r="J20">
-        <v>20.11117205591966</v>
+        <v>20.11117205591967</v>
       </c>
       <c r="K20">
-        <v>11.77649455475017</v>
+        <v>11.77649455475018</v>
       </c>
       <c r="L20">
         <v>17.3148482627391</v>
@@ -1134,37 +1134,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.41131270106399</v>
+        <v>23.41131270106415</v>
       </c>
       <c r="C21">
-        <v>18.73670172399924</v>
+        <v>18.73670172399936</v>
       </c>
       <c r="D21">
-        <v>3.294740444623157</v>
+        <v>3.294740444623166</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>49.24935201003979</v>
+        <v>49.24935201003993</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>31.23322694993486</v>
+        <v>31.23322694993489</v>
       </c>
       <c r="I21">
-        <v>8.270246523815645</v>
+        <v>8.270246523815706</v>
       </c>
       <c r="J21">
-        <v>21.4493131311802</v>
+        <v>21.44931313118038</v>
       </c>
       <c r="K21">
-        <v>12.49073731151254</v>
+        <v>12.49073731151251</v>
       </c>
       <c r="L21">
-        <v>18.46430614440989</v>
+        <v>18.46430614440995</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,37 +1172,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>24.3526117042525</v>
+        <v>24.35261170425256</v>
       </c>
       <c r="C22">
-        <v>19.5050821880408</v>
+        <v>19.50508218804091</v>
       </c>
       <c r="D22">
-        <v>3.270333953049135</v>
+        <v>3.270333953049234</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>50.93328712676778</v>
+        <v>50.933287126768</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>32.12054571684354</v>
+        <v>32.12054571684364</v>
       </c>
       <c r="I22">
-        <v>8.396668642050219</v>
+        <v>8.396668642050214</v>
       </c>
       <c r="J22">
-        <v>22.29979209092116</v>
+        <v>22.29979209092118</v>
       </c>
       <c r="K22">
-        <v>13.00773564557374</v>
+        <v>13.00773564557376</v>
       </c>
       <c r="L22">
-        <v>19.19510116525859</v>
+        <v>19.1951011652586</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,34 +1210,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.85265155299773</v>
+        <v>23.85265155299771</v>
       </c>
       <c r="C23">
-        <v>19.09672938263227</v>
+        <v>19.09672938263248</v>
       </c>
       <c r="D23">
-        <v>3.283286857083233</v>
+        <v>3.283286857083251</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>50.03531834204173</v>
+        <v>50.0353183420419</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>31.6463267153794</v>
+        <v>31.64632671537949</v>
       </c>
       <c r="I23">
-        <v>8.328698803771948</v>
+        <v>8.328698803772006</v>
       </c>
       <c r="J23">
-        <v>21.84798186413007</v>
+        <v>21.84798186413014</v>
       </c>
       <c r="K23">
-        <v>12.7330067877887</v>
+        <v>12.73300678778868</v>
       </c>
       <c r="L23">
         <v>18.80685138588358</v>
@@ -1248,37 +1248,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.90398408174344</v>
+        <v>21.90398408174355</v>
       </c>
       <c r="C24">
-        <v>17.51010088446151</v>
+        <v>17.51010088446148</v>
       </c>
       <c r="D24">
-        <v>3.333822601528565</v>
+        <v>3.33382260152857</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>46.61532926021194</v>
+        <v>46.61532926021196</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>29.86324653901989</v>
+        <v>29.86324653901987</v>
       </c>
       <c r="I24">
-        <v>8.081786841591553</v>
+        <v>8.081786841591544</v>
       </c>
       <c r="J24">
-        <v>20.08887402885089</v>
+        <v>20.08887402885095</v>
       </c>
       <c r="K24">
-        <v>11.76575644496072</v>
+        <v>11.76575644496073</v>
       </c>
       <c r="L24">
-        <v>17.29569868177123</v>
+        <v>17.2956986817713</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,37 +1286,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.6738560615771</v>
+        <v>19.67385606157717</v>
       </c>
       <c r="C25">
-        <v>15.70333226122171</v>
+        <v>15.70333226122176</v>
       </c>
       <c r="D25">
-        <v>3.390795477702491</v>
+        <v>3.390795477702607</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>42.87718801115267</v>
+        <v>42.87718801115262</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>27.96255706660705</v>
+        <v>27.962557066607</v>
       </c>
       <c r="I25">
-        <v>7.835738951657762</v>
+        <v>7.835738951657838</v>
       </c>
       <c r="J25">
-        <v>18.07931105715388</v>
+        <v>18.07931105715398</v>
       </c>
       <c r="K25">
-        <v>10.82057388251742</v>
+        <v>10.82057388251743</v>
       </c>
       <c r="L25">
-        <v>15.57056384708916</v>
+        <v>15.57056384708918</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_13/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_13/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,917 +406,992 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.91228929249807</v>
+        <v>17.81823435760852</v>
       </c>
       <c r="C2">
-        <v>14.28237923506407</v>
+        <v>14.16180552064023</v>
       </c>
       <c r="D2">
-        <v>3.434362752603722</v>
+        <v>3.577086837403061</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>40.08020857484627</v>
+        <v>40.25715956284235</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>2.082506365762558</v>
       </c>
       <c r="H2">
-        <v>26.5803677501832</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>7.670134936018472</v>
+        <v>26.75570918768631</v>
       </c>
       <c r="J2">
-        <v>16.49471937259084</v>
+        <v>7.631027334458289</v>
       </c>
       <c r="K2">
-        <v>10.11135266063177</v>
+        <v>16.37819428291673</v>
       </c>
       <c r="L2">
-        <v>14.21135390395416</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>10.09523838171641</v>
+      </c>
+      <c r="M2">
+        <v>14.15801484561844</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.63984863162252</v>
+        <v>16.54952915586293</v>
       </c>
       <c r="C3">
-        <v>13.25912021920725</v>
+        <v>13.14253456164813</v>
       </c>
       <c r="D3">
-        <v>3.464725290534346</v>
+        <v>3.609159624953979</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>38.15938008984833</v>
+        <v>38.36974311972476</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>2.093414103134146</v>
       </c>
       <c r="H3">
-        <v>25.65485038501217</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>7.566792120635236</v>
+        <v>25.85042558747183</v>
       </c>
       <c r="J3">
-        <v>15.351685071329</v>
+        <v>7.526391906504978</v>
       </c>
       <c r="K3">
-        <v>9.62340461881683</v>
+        <v>15.2371555063679</v>
       </c>
       <c r="L3">
-        <v>13.23162195263996</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>9.607883837536829</v>
+      </c>
+      <c r="M3">
+        <v>13.17990549630607</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.81858697464893</v>
+        <v>15.7306627604869</v>
       </c>
       <c r="C4">
-        <v>12.60000916574927</v>
+        <v>12.48595604667551</v>
       </c>
       <c r="D4">
-        <v>3.48373877582655</v>
+        <v>3.629193383980585</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>36.96942092851521</v>
+        <v>37.20202835913766</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>2.100252801199996</v>
       </c>
       <c r="H4">
-        <v>25.09261257821314</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>7.507474667070367</v>
+        <v>25.30127100914912</v>
       </c>
       <c r="J4">
-        <v>14.61468427479742</v>
+        <v>7.466245133691683</v>
       </c>
       <c r="K4">
-        <v>9.320813507112668</v>
+        <v>14.50128733497717</v>
       </c>
       <c r="L4">
-        <v>12.60028309703842</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>9.305621797688058</v>
+      </c>
+      <c r="M4">
+        <v>12.54952848730682</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.47369817485234</v>
+        <v>15.38677805648083</v>
       </c>
       <c r="C5">
-        <v>12.3235142897601</v>
+        <v>12.21051602300559</v>
       </c>
       <c r="D5">
-        <v>3.491575062734553</v>
+        <v>3.637439711664783</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>36.48225035963394</v>
+        <v>36.72435268991569</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>2.103077967177386</v>
       </c>
       <c r="H5">
-        <v>24.86512346177411</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>7.484306995994713</v>
+        <v>25.07926924424265</v>
       </c>
       <c r="J5">
-        <v>14.30536220043111</v>
+        <v>7.44273154387267</v>
       </c>
       <c r="K5">
-        <v>9.196877002850774</v>
+        <v>14.19240143226324</v>
       </c>
       <c r="L5">
-        <v>12.33540182074581</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>9.181810983039105</v>
+      </c>
+      <c r="M5">
+        <v>12.31720858006413</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.41580786224509</v>
+        <v>15.32905623750388</v>
       </c>
       <c r="C6">
-        <v>12.27712106328565</v>
+        <v>12.1642993806147</v>
       </c>
       <c r="D6">
-        <v>3.492881465432544</v>
+        <v>3.638813903323069</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>36.40123371211294</v>
+        <v>36.64493839946298</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>2.103549477431409</v>
       </c>
       <c r="H6">
-        <v>24.82745099821092</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>7.48051968177615</v>
+        <v>25.04251702537344</v>
       </c>
       <c r="J6">
-        <v>14.25345265799025</v>
+        <v>7.438886337238211</v>
       </c>
       <c r="K6">
-        <v>9.17626363419128</v>
+        <v>14.14056270312566</v>
       </c>
       <c r="L6">
-        <v>12.29095591388983</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>9.161217990067046</v>
+      </c>
+      <c r="M6">
+        <v>12.28568103263314</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.81397726773664</v>
+        <v>15.7260664784887</v>
       </c>
       <c r="C7">
-        <v>12.59631244521628</v>
+        <v>12.48227345764512</v>
       </c>
       <c r="D7">
-        <v>3.483844107867554</v>
+        <v>3.629304266975205</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>36.96285929084905</v>
+        <v>37.19559304156109</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>2.100290743583302</v>
       </c>
       <c r="H7">
-        <v>25.08953782938713</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>7.507158197990845</v>
+        <v>25.29826964865059</v>
       </c>
       <c r="J7">
-        <v>14.61054922404845</v>
+        <v>7.465924030397984</v>
       </c>
       <c r="K7">
-        <v>9.31914441651654</v>
+        <v>14.49715827281714</v>
       </c>
       <c r="L7">
-        <v>12.59674175734122</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>9.303954435646435</v>
+      </c>
+      <c r="M7">
+        <v>12.54599234902411</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.48174646066302</v>
+        <v>17.38895986672507</v>
       </c>
       <c r="C8">
-        <v>13.93586373926676</v>
+        <v>13.81664879392714</v>
       </c>
       <c r="D8">
-        <v>3.444751408062524</v>
+        <v>3.588072508830269</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>39.42030975261194</v>
+        <v>39.60842105301605</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>2.086239791282159</v>
       </c>
       <c r="H8">
-        <v>26.26005528946009</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>7.633622556876802</v>
+        <v>26.44223112291927</v>
       </c>
       <c r="J8">
-        <v>16.10781100413936</v>
+        <v>7.594077279906617</v>
       </c>
       <c r="K8">
-        <v>9.943794013757742</v>
+        <v>15.99199222522144</v>
       </c>
       <c r="L8">
-        <v>13.87964885815679</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>9.927892013719566</v>
+      </c>
+      <c r="M8">
+        <v>13.82687631351818</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.44306873817772</v>
+        <v>20.34141775268592</v>
       </c>
       <c r="C9">
-        <v>16.3254898783888</v>
+        <v>16.19670295553967</v>
       </c>
       <c r="D9">
-        <v>3.371324874993192</v>
+        <v>3.510122630175522</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>44.14339149831798</v>
+        <v>44.25767892925826</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>2.059666784332737</v>
       </c>
       <c r="H9">
-        <v>28.60007995698916</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>7.916087277137748</v>
+        <v>28.73573209116013</v>
       </c>
       <c r="J9">
-        <v>18.77201106385066</v>
+        <v>7.87952361562849</v>
       </c>
       <c r="K9">
-        <v>11.14108689876464</v>
+        <v>18.65074314913902</v>
       </c>
       <c r="L9">
-        <v>16.16506003316526</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>11.12348240195755</v>
+      </c>
+      <c r="M9">
+        <v>16.10804176357729</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.4425060450784</v>
+        <v>22.33460674771777</v>
       </c>
       <c r="C10">
-        <v>17.9478031968292</v>
+        <v>17.81219604922925</v>
       </c>
       <c r="D10">
-        <v>3.319883029834937</v>
+        <v>3.455006783311438</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>47.54713341278469</v>
+        <v>47.61517882327703</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>2.040522187053618</v>
       </c>
       <c r="H10">
-        <v>30.34523069061407</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>8.147109374120236</v>
+        <v>30.45033675413744</v>
       </c>
       <c r="J10">
-        <v>20.57471298077749</v>
+        <v>8.112465813024217</v>
       </c>
       <c r="K10">
-        <v>12.0008588726964</v>
+        <v>20.44902669387438</v>
       </c>
       <c r="L10">
-        <v>17.71297151723371</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>11.98177099339546</v>
+      </c>
+      <c r="M10">
+        <v>17.65262464805338</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.31688741003211</v>
+        <v>23.20616275519182</v>
       </c>
       <c r="C11">
-        <v>18.65972637274642</v>
+        <v>18.52102446253979</v>
       </c>
       <c r="D11">
-        <v>3.29719202116183</v>
+        <v>3.430527058560837</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>49.0820304960838</v>
+        <v>49.13063454206638</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>2.031838367025192</v>
       </c>
       <c r="H11">
-        <v>31.14552861666582</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>8.257930749782611</v>
+        <v>31.2375304837352</v>
       </c>
       <c r="J11">
-        <v>21.364037252925</v>
+        <v>8.224085622811257</v>
       </c>
       <c r="K11">
-        <v>12.43893331918416</v>
+        <v>21.23623580324085</v>
       </c>
       <c r="L11">
-        <v>18.39104019087308</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>12.42292670020555</v>
+      </c>
+      <c r="M11">
+        <v>18.32911551433564</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.64322236646292</v>
+        <v>23.53142631604363</v>
       </c>
       <c r="C12">
-        <v>18.92583351250324</v>
+        <v>18.78595690916122</v>
       </c>
       <c r="D12">
-        <v>3.288720539435229</v>
+        <v>3.421357182781446</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>49.66155468903642</v>
+        <v>49.70301076483918</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>2.028548178875187</v>
       </c>
       <c r="H12">
-        <v>31.44964420749176</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>8.300779262791764</v>
+        <v>31.53679465729913</v>
       </c>
       <c r="J12">
-        <v>21.65878169552325</v>
+        <v>8.267224208836463</v>
       </c>
       <c r="K12">
-        <v>12.61801345263513</v>
+        <v>21.53016182964486</v>
       </c>
       <c r="L12">
-        <v>18.64428156082965</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>12.6016184670104</v>
+      </c>
+      <c r="M12">
+        <v>18.58174804976958</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.57314774601162</v>
+        <v>23.46158257608661</v>
       </c>
       <c r="C13">
-        <v>18.86867285514984</v>
+        <v>18.72904943634227</v>
       </c>
       <c r="D13">
-        <v>3.290539284614981</v>
+        <v>3.423327349681092</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>49.53681459284592</v>
+        <v>49.57980086186156</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>2.029256955022589</v>
       </c>
       <c r="H13">
-        <v>31.3840973808056</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>8.291510765352273</v>
+        <v>31.47228781236203</v>
       </c>
       <c r="J13">
-        <v>21.59548345741399</v>
+        <v>8.257893810057068</v>
       </c>
       <c r="K13">
-        <v>12.57954852593698</v>
+        <v>21.46704067484606</v>
       </c>
       <c r="L13">
-        <v>18.58989458403165</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>12.56323752803817</v>
+      </c>
+      <c r="M13">
+        <v>18.52749274324268</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.34382912017282</v>
+        <v>23.23301637582663</v>
       </c>
       <c r="C14">
-        <v>18.68168731549374</v>
+        <v>18.54288884310495</v>
       </c>
       <c r="D14">
-        <v>3.296492514337986</v>
+        <v>3.429770542642979</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>49.12974071657946</v>
+        <v>49.1777525012061</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>2.031567751411256</v>
       </c>
       <c r="H14">
-        <v>31.17052610525024</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>8.261437858319066</v>
+        <v>31.26212664700677</v>
       </c>
       <c r="J14">
-        <v>21.38836770624114</v>
+        <v>8.227616850847486</v>
       </c>
       <c r="K14">
-        <v>12.45371311286303</v>
+        <v>21.2604992911958</v>
       </c>
       <c r="L14">
-        <v>18.41194385204105</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>12.43767469554469</v>
+      </c>
+      <c r="M14">
+        <v>18.34996932874338</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.20275208649682</v>
+        <v>23.0923999019399</v>
       </c>
       <c r="C15">
-        <v>18.56670822145385</v>
+        <v>18.42841456327656</v>
       </c>
       <c r="D15">
-        <v>3.300155455511619</v>
+        <v>3.433730723871752</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>48.88018298492259</v>
+        <v>48.93130042312804</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>2.03298277074573</v>
       </c>
       <c r="H15">
-        <v>31.03985086378744</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>8.243134215195337</v>
+        <v>31.13355450489333</v>
       </c>
       <c r="J15">
-        <v>21.26097056262662</v>
+        <v>8.209186574785541</v>
       </c>
       <c r="K15">
-        <v>12.3763300439827</v>
+        <v>21.13345160757138</v>
       </c>
       <c r="L15">
-        <v>18.30249145711962</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>12.36045761310605</v>
+      </c>
+      <c r="M15">
+        <v>18.24077712341908</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.3846788751579</v>
+        <v>22.27696424133835</v>
       </c>
       <c r="C16">
-        <v>17.90077470139786</v>
+        <v>17.76536964384781</v>
       </c>
       <c r="D16">
-        <v>3.321381750503493</v>
+        <v>3.456619698258971</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>47.4465695863782</v>
+        <v>47.51591637677375</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>2.041089753604041</v>
       </c>
       <c r="H16">
-        <v>30.29306865271584</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>8.139987065791818</v>
+        <v>30.39904683422456</v>
       </c>
       <c r="J16">
-        <v>20.52253215844721</v>
+        <v>8.105289690983076</v>
       </c>
       <c r="K16">
-        <v>11.97549555940275</v>
+        <v>20.39698180697349</v>
       </c>
       <c r="L16">
-        <v>17.66815163026201</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>11.95645457563228</v>
+      </c>
+      <c r="M16">
+        <v>17.60790641989619</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.87400027307801</v>
+        <v>21.76790543757648</v>
       </c>
       <c r="C17">
-        <v>17.4857472143026</v>
+        <v>17.35211366211467</v>
       </c>
       <c r="D17">
-        <v>3.33459739529478</v>
+        <v>3.470822526162216</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>46.56376234151367</v>
+        <v>46.64469059615</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>2.046065928452509</v>
       </c>
       <c r="H17">
-        <v>29.83666214312392</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>8.078216245589909</v>
+        <v>29.95037171432292</v>
       </c>
       <c r="J17">
-        <v>20.06183012870725</v>
+        <v>8.0430386951699</v>
       </c>
       <c r="K17">
-        <v>11.75273970865595</v>
+        <v>19.93745912736013</v>
       </c>
       <c r="L17">
-        <v>17.27247354123565</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>11.73410233118198</v>
+      </c>
+      <c r="M17">
+        <v>17.21311191883635</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.57694202664168</v>
+        <v>21.47178072732563</v>
       </c>
       <c r="C18">
-        <v>17.24456226494706</v>
+        <v>17.1119486398566</v>
       </c>
       <c r="D18">
-        <v>3.342264146877283</v>
+        <v>3.479046316970528</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>46.0547039427286</v>
+        <v>46.14244469150553</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>2.048930825341099</v>
       </c>
       <c r="H18">
-        <v>29.57474130821029</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>8.043222487888787</v>
+        <v>29.69297258320661</v>
       </c>
       <c r="J18">
-        <v>19.79393608491192</v>
+        <v>8.007761786446835</v>
       </c>
       <c r="K18">
-        <v>11.62420776534927</v>
+        <v>19.67023370060302</v>
       </c>
       <c r="L18">
-        <v>17.04241997069141</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>11.6057965673664</v>
+      </c>
+      <c r="M18">
+        <v>16.98356074390711</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.47578327627871</v>
+        <v>21.37093848786493</v>
       </c>
       <c r="C19">
-        <v>17.16246899691853</v>
+        <v>17.03020098139801</v>
       </c>
       <c r="D19">
-        <v>3.344870714597994</v>
+        <v>3.481839755920961</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>45.88211897160278</v>
+        <v>45.97219269421262</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>2.049901453318923</v>
       </c>
       <c r="H19">
-        <v>29.48615805910292</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>8.031464455366608</v>
+        <v>29.60593320482269</v>
       </c>
       <c r="J19">
-        <v>19.70272438025006</v>
+        <v>7.995906730697283</v>
       </c>
       <c r="K19">
-        <v>11.58061816671699</v>
+        <v>19.57924676618664</v>
       </c>
       <c r="L19">
-        <v>16.96409723237852</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>11.56228256614021</v>
+      </c>
+      <c r="M19">
+        <v>16.90540716573651</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.92870551741154</v>
+        <v>21.82243808454701</v>
       </c>
       <c r="C20">
-        <v>17.53018162564572</v>
+        <v>17.39635941571953</v>
       </c>
       <c r="D20">
-        <v>3.333183669186205</v>
+        <v>3.469304854553229</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>46.65787105887064</v>
+        <v>46.73755090627702</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>2.045535960335786</v>
       </c>
       <c r="H20">
-        <v>29.88518534235766</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>8.084736064112102</v>
+        <v>29.99806416472883</v>
       </c>
       <c r="J20">
-        <v>20.11117205591967</v>
+        <v>8.049610360621118</v>
       </c>
       <c r="K20">
-        <v>11.77649455475018</v>
+        <v>19.98667653008467</v>
       </c>
       <c r="L20">
-        <v>17.3148482627391</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>11.75781483999994</v>
+      </c>
+      <c r="M20">
+        <v>17.25539319735224</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.41131270106415</v>
+        <v>23.30027902630007</v>
       </c>
       <c r="C21">
-        <v>18.73670172399936</v>
+        <v>18.59766105483633</v>
       </c>
       <c r="D21">
-        <v>3.294740444623166</v>
+        <v>3.42787516678656</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>49.24935201003993</v>
+        <v>49.29588200372223</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>2.030889110751304</v>
       </c>
       <c r="H21">
-        <v>31.23322694993489</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>8.270246523815706</v>
+        <v>31.32382288646707</v>
       </c>
       <c r="J21">
-        <v>21.44931313118038</v>
+        <v>8.236485797089212</v>
       </c>
       <c r="K21">
-        <v>12.49073731151251</v>
+        <v>21.3212765070364</v>
       </c>
       <c r="L21">
-        <v>18.46430614440995</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>12.47461903805095</v>
+      </c>
+      <c r="M21">
+        <v>18.40220643644973</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>24.35261170425256</v>
+        <v>24.2384519694813</v>
       </c>
       <c r="C22">
-        <v>19.50508218804091</v>
+        <v>19.36261241055937</v>
       </c>
       <c r="D22">
-        <v>3.270333953049234</v>
+        <v>3.401391700862886</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>50.933287126768</v>
+        <v>50.95939051084886</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>2.021302885469416</v>
       </c>
       <c r="H22">
-        <v>32.12054571684364</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>8.396668642050214</v>
+        <v>32.19722155963007</v>
       </c>
       <c r="J22">
-        <v>22.29979209092118</v>
+        <v>8.36372765935706</v>
       </c>
       <c r="K22">
-        <v>13.00773564557376</v>
+        <v>22.16933769257047</v>
       </c>
       <c r="L22">
-        <v>19.1951011652586</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>12.99047161535732</v>
+      </c>
+      <c r="M22">
+        <v>19.13120535546651</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.85265155299771</v>
+        <v>23.74016274819743</v>
       </c>
       <c r="C23">
-        <v>19.09672938263248</v>
+        <v>18.95609297026568</v>
       </c>
       <c r="D23">
-        <v>3.283286857083251</v>
+        <v>3.415466146056899</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>50.0353183420419</v>
+        <v>50.07221615486228</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>2.026422482107311</v>
       </c>
       <c r="H23">
-        <v>31.64632671537949</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>8.328698803772006</v>
+        <v>31.73037473847188</v>
       </c>
       <c r="J23">
-        <v>21.84798186413014</v>
+        <v>8.29532745464741</v>
       </c>
       <c r="K23">
-        <v>12.73300678778868</v>
+        <v>21.71882835264892</v>
       </c>
       <c r="L23">
-        <v>18.80685138588358</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>12.71635882911736</v>
+      </c>
+      <c r="M23">
+        <v>18.74392128115289</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.90398408174355</v>
+        <v>21.79779467271854</v>
       </c>
       <c r="C24">
-        <v>17.51010088446148</v>
+        <v>17.37636396185328</v>
       </c>
       <c r="D24">
-        <v>3.33382260152857</v>
+        <v>3.469990813073218</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>46.61532926021196</v>
+        <v>46.69557303124666</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>2.045775545976019</v>
       </c>
       <c r="H24">
-        <v>29.86324653901987</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>8.081786841591544</v>
+        <v>29.97650070345216</v>
       </c>
       <c r="J24">
-        <v>20.08887402885095</v>
+        <v>8.046637720082254</v>
       </c>
       <c r="K24">
-        <v>11.76575644496073</v>
+        <v>19.96443482967599</v>
       </c>
       <c r="L24">
-        <v>17.2956986817713</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>11.74709588903208</v>
+      </c>
+      <c r="M24">
+        <v>17.23628587921634</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.67385606157717</v>
+        <v>19.57454432211921</v>
       </c>
       <c r="C25">
-        <v>15.70333226122176</v>
+        <v>15.57708617470254</v>
       </c>
       <c r="D25">
-        <v>3.390795477702607</v>
+        <v>3.530866231131563</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>42.87718801115262</v>
+        <v>43.01000431476405</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>2.066771618717342</v>
       </c>
       <c r="H25">
-        <v>27.962557066607</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>7.835738951657838</v>
+        <v>28.11016565878516</v>
       </c>
       <c r="J25">
-        <v>18.07931105715398</v>
+        <v>7.798410933138262</v>
       </c>
       <c r="K25">
-        <v>10.82057388251743</v>
+        <v>17.95958760349871</v>
       </c>
       <c r="L25">
-        <v>15.57056384708918</v>
+        <v>10.8034668560005</v>
+      </c>
+      <c r="M25">
+        <v>15.51472640058655</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_13/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_13/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.81823435760852</v>
+        <v>20.51959755349721</v>
       </c>
       <c r="C2">
-        <v>14.16180552064023</v>
+        <v>11.93477795874315</v>
       </c>
       <c r="D2">
-        <v>3.577086837403061</v>
+        <v>4.365920707627843</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>40.25715956284235</v>
+        <v>30.41594809662003</v>
       </c>
       <c r="G2">
-        <v>2.082506365762558</v>
+        <v>2.090649084252123</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>26.75570918768631</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>7.631027334458289</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>16.37819428291673</v>
+        <v>16.78592803321794</v>
       </c>
       <c r="L2">
-        <v>10.09523838171641</v>
+        <v>6.583031370360136</v>
       </c>
       <c r="M2">
-        <v>14.15801484561844</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>12.66325416338227</v>
+      </c>
+      <c r="N2">
+        <v>13.57787260891404</v>
+      </c>
+      <c r="O2">
+        <v>23.895314875511</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.54952915586293</v>
+        <v>19.2179841059534</v>
       </c>
       <c r="C3">
-        <v>13.14253456164813</v>
+        <v>11.29228549469947</v>
       </c>
       <c r="D3">
-        <v>3.609159624953979</v>
+        <v>4.442123240532721</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>38.36974311972476</v>
+        <v>29.2999847732321</v>
       </c>
       <c r="G3">
-        <v>2.093414103134146</v>
+        <v>2.099427783317998</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>25.85042558747183</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>7.526391906504978</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>15.2371555063679</v>
+        <v>15.6212754385011</v>
       </c>
       <c r="L3">
-        <v>9.607883837536829</v>
+        <v>6.514269303277596</v>
       </c>
       <c r="M3">
-        <v>13.17990549630607</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>12.16421833870589</v>
+      </c>
+      <c r="N3">
+        <v>13.81145266384315</v>
+      </c>
+      <c r="O3">
+        <v>23.22849314611212</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.7306627604869</v>
+        <v>18.38602311570268</v>
       </c>
       <c r="C4">
-        <v>12.48595604667551</v>
+        <v>10.88093791173899</v>
       </c>
       <c r="D4">
-        <v>3.629193383980585</v>
+        <v>4.489156617982832</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>37.20202835913766</v>
+        <v>28.6241956428243</v>
       </c>
       <c r="G4">
-        <v>2.100252801199996</v>
+        <v>2.104959012457727</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>25.30127100914912</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>7.466245133691683</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>14.50128733497717</v>
+        <v>14.86761510801139</v>
       </c>
       <c r="L4">
-        <v>9.305621797688058</v>
+        <v>6.475218829331963</v>
       </c>
       <c r="M4">
-        <v>12.54952848730682</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>11.85578064477088</v>
+      </c>
+      <c r="N4">
+        <v>13.95842616525188</v>
+      </c>
+      <c r="O4">
+        <v>22.83324001517188</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.38677805648083</v>
+        <v>18.03892567256002</v>
       </c>
       <c r="C5">
-        <v>12.21051602300559</v>
+        <v>10.70911097636396</v>
       </c>
       <c r="D5">
-        <v>3.637439711664783</v>
+        <v>4.50840647712198</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>36.72435268991569</v>
+        <v>28.35144390682686</v>
       </c>
       <c r="G5">
-        <v>2.103077967177386</v>
+        <v>2.107250144278632</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>25.07926924424265</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>7.44273154387267</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>14.19240143226324</v>
+        <v>14.55068748220142</v>
       </c>
       <c r="L5">
-        <v>9.181810983039105</v>
+        <v>6.460092320919311</v>
       </c>
       <c r="M5">
-        <v>12.31720858006413</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>11.72974215839777</v>
+      </c>
+      <c r="N5">
+        <v>14.01922558953965</v>
+      </c>
+      <c r="O5">
+        <v>22.6758008590747</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.32905623750388</v>
+        <v>17.98080951722498</v>
       </c>
       <c r="C6">
-        <v>12.1642993806147</v>
+        <v>10.68032714731694</v>
       </c>
       <c r="D6">
-        <v>3.638813903323069</v>
+        <v>4.511608545412157</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>36.64493839946298</v>
+        <v>28.30632132646359</v>
       </c>
       <c r="G6">
-        <v>2.103549477431409</v>
+        <v>2.107632872292828</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>25.04251702537344</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>7.438886337238211</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>14.14056270312566</v>
+        <v>14.49746660425295</v>
       </c>
       <c r="L6">
-        <v>9.161217990067046</v>
+        <v>6.457627787794981</v>
       </c>
       <c r="M6">
-        <v>12.28568103263314</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>11.70879767999772</v>
+      </c>
+      <c r="N6">
+        <v>14.02937642828303</v>
+      </c>
+      <c r="O6">
+        <v>22.64987926527186</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.7260664784887</v>
+        <v>18.3813744244807</v>
       </c>
       <c r="C7">
-        <v>12.48227345764512</v>
+        <v>10.87863753074114</v>
       </c>
       <c r="D7">
-        <v>3.629304266975205</v>
+        <v>4.489415863020777</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>37.19559304156109</v>
+        <v>28.62050616362645</v>
       </c>
       <c r="G7">
-        <v>2.100290743583302</v>
+        <v>2.104989759111511</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>25.29826964865059</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>7.465924030397984</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>14.49715827281714</v>
+        <v>14.86338075184432</v>
       </c>
       <c r="L7">
-        <v>9.303954435646435</v>
+        <v>6.475011655931072</v>
       </c>
       <c r="M7">
-        <v>12.54599234902411</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>11.85408202474908</v>
+      </c>
+      <c r="N7">
+        <v>13.95924243954254</v>
+      </c>
+      <c r="O7">
+        <v>22.83110195547643</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.38895986672507</v>
+        <v>20.07768578557715</v>
       </c>
       <c r="C8">
-        <v>13.81664879392714</v>
+        <v>11.71676162811391</v>
       </c>
       <c r="D8">
-        <v>3.588072508830269</v>
+        <v>4.392158226971162</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>39.60842105301605</v>
+        <v>30.0293632537756</v>
       </c>
       <c r="G8">
-        <v>2.086239791282159</v>
+        <v>2.0936477200815</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>26.44223112291927</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>7.594077279906617</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>15.99199222522144</v>
+        <v>16.39229148833463</v>
       </c>
       <c r="L8">
-        <v>9.927892013719566</v>
+        <v>6.558658415098045</v>
       </c>
       <c r="M8">
-        <v>13.82687631351818</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>12.49169868158247</v>
+      </c>
+      <c r="N8">
+        <v>13.65768070782508</v>
+      </c>
+      <c r="O8">
+        <v>23.6624907310589</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.34141775268592</v>
+        <v>23.30354846019512</v>
       </c>
       <c r="C9">
-        <v>16.19670295553967</v>
+        <v>13.22594050852328</v>
       </c>
       <c r="D9">
-        <v>3.510122630175522</v>
+        <v>4.202296936503402</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>44.25767892925826</v>
+        <v>32.85663522042242</v>
       </c>
       <c r="G9">
-        <v>2.059666784332737</v>
+        <v>2.072445307259981</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>28.73573209116013</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>7.87952361562849</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>18.65074314913902</v>
+        <v>19.08973269773568</v>
       </c>
       <c r="L9">
-        <v>11.12348240195755</v>
+        <v>6.748277080425915</v>
       </c>
       <c r="M9">
-        <v>16.10804176357729</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>13.71991699708534</v>
+      </c>
+      <c r="N9">
+        <v>13.09399791825656</v>
+      </c>
+      <c r="O9">
+        <v>25.40273466731562</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.33460674771777</v>
+        <v>25.53773079065078</v>
       </c>
       <c r="C10">
-        <v>17.81219604922925</v>
+        <v>14.25334768830618</v>
       </c>
       <c r="D10">
-        <v>3.455006783311438</v>
+        <v>4.061662986695432</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>47.61517882327703</v>
+        <v>34.96257259226402</v>
       </c>
       <c r="G10">
-        <v>2.040522187053618</v>
+        <v>2.057379659432695</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>30.45033675413744</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>8.112465813024217</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>20.44902669387438</v>
+        <v>20.89589975230449</v>
       </c>
       <c r="L10">
-        <v>11.98177099339546</v>
+        <v>6.903797181144872</v>
       </c>
       <c r="M10">
-        <v>17.65262464805338</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>14.60230100037987</v>
+      </c>
+      <c r="N10">
+        <v>12.69613207574346</v>
+      </c>
+      <c r="O10">
+        <v>26.74572517924696</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.20616275519182</v>
+        <v>26.51064874099115</v>
       </c>
       <c r="C11">
-        <v>18.52102446253979</v>
+        <v>14.70354665208405</v>
       </c>
       <c r="D11">
-        <v>3.430527058560837</v>
+        <v>3.99701579761656</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>49.13063454206638</v>
+        <v>35.92563467732598</v>
       </c>
       <c r="G11">
-        <v>2.031838367025192</v>
+        <v>2.050606847623648</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>31.2375304837352</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>8.224085622811257</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>21.23623580324085</v>
+        <v>21.68127451825808</v>
       </c>
       <c r="L11">
-        <v>12.42292670020555</v>
+        <v>6.978206181516136</v>
       </c>
       <c r="M11">
-        <v>18.32911551433564</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>14.99847965130737</v>
+      </c>
+      <c r="N11">
+        <v>12.5185930296336</v>
+      </c>
+      <c r="O11">
+        <v>27.37052426563163</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.53142631604363</v>
+        <v>26.87300165726736</v>
       </c>
       <c r="C12">
-        <v>18.78595690916122</v>
+        <v>14.87161609229169</v>
       </c>
       <c r="D12">
-        <v>3.421357182781446</v>
+        <v>3.972399256980427</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>49.70301076483918</v>
+        <v>36.29102072384917</v>
       </c>
       <c r="G12">
-        <v>2.028548178875187</v>
+        <v>2.048050957239422</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>31.53679465729913</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>8.267224208836463</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>21.53016182964486</v>
+        <v>21.97362682680226</v>
       </c>
       <c r="L12">
-        <v>12.6016184670104</v>
+        <v>7.006922099206246</v>
       </c>
       <c r="M12">
-        <v>18.58174804976958</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>15.19907693034161</v>
+      </c>
+      <c r="N12">
+        <v>12.45186041688669</v>
+      </c>
+      <c r="O12">
+        <v>27.60913425988246</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.46158257608661</v>
+        <v>26.79522943432433</v>
       </c>
       <c r="C13">
-        <v>18.72904943634227</v>
+        <v>14.83552545759159</v>
       </c>
       <c r="D13">
-        <v>3.423327349681092</v>
+        <v>3.977707597519991</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>49.57980086186156</v>
+        <v>36.21229721736147</v>
       </c>
       <c r="G13">
-        <v>2.029256955022589</v>
+        <v>2.048601068615966</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>31.47228781236203</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>8.257893810057068</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>21.46704067484606</v>
+        <v>21.91088548857702</v>
       </c>
       <c r="L13">
-        <v>12.56323752803817</v>
+        <v>7.000713433090574</v>
       </c>
       <c r="M13">
-        <v>18.52749274324268</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>15.15552652832785</v>
+      </c>
+      <c r="N13">
+        <v>12.46621027150726</v>
+      </c>
+      <c r="O13">
+        <v>27.55765518081811</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.23301637582663</v>
+        <v>26.54058031104278</v>
       </c>
       <c r="C14">
-        <v>18.54288884310495</v>
+        <v>14.71742175447287</v>
       </c>
       <c r="D14">
-        <v>3.429770542642979</v>
+        <v>3.994993548865039</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>49.1777525012061</v>
+        <v>35.95568123280512</v>
       </c>
       <c r="G14">
-        <v>2.031567751411256</v>
+        <v>2.050396412982582</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>31.26212664700677</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>8.227616850847486</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>21.2604992911958</v>
+        <v>21.70542679193208</v>
       </c>
       <c r="L14">
-        <v>12.43767469554469</v>
+        <v>6.980557781647795</v>
       </c>
       <c r="M14">
-        <v>18.34996932874338</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>15.01291599734155</v>
+      </c>
+      <c r="N14">
+        <v>12.51309289907235</v>
+      </c>
+      <c r="O14">
+        <v>27.39011430117031</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.0923999019399</v>
+        <v>26.38381541279202</v>
       </c>
       <c r="C15">
-        <v>18.42841456327656</v>
+        <v>14.64476784513927</v>
       </c>
       <c r="D15">
-        <v>3.433730723871752</v>
+        <v>4.005562727212095</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>48.93130042312804</v>
+        <v>35.79858719806733</v>
       </c>
       <c r="G15">
-        <v>2.03298277074573</v>
+        <v>2.051497175610007</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>31.13355450489333</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>8.209186574785541</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>21.13345160757138</v>
+        <v>21.57892452431453</v>
       </c>
       <c r="L15">
-        <v>12.36045761310605</v>
+        <v>6.968282429816782</v>
       </c>
       <c r="M15">
-        <v>18.24077712341908</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>14.94645589558556</v>
+      </c>
+      <c r="N15">
+        <v>12.54187478815832</v>
+      </c>
+      <c r="O15">
+        <v>27.28775383489927</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.27696424133835</v>
+        <v>25.47328893869473</v>
       </c>
       <c r="C16">
-        <v>17.76536964384781</v>
+        <v>14.22358516138283</v>
       </c>
       <c r="D16">
-        <v>3.456619698258971</v>
+        <v>4.06587104195923</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>47.51591637677375</v>
+        <v>34.89973186700743</v>
       </c>
       <c r="G16">
-        <v>2.041089753604041</v>
+        <v>2.057823670938994</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>30.39904683422456</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>8.105289690983076</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>20.39698180697349</v>
+        <v>20.843857568259</v>
       </c>
       <c r="L16">
-        <v>11.95645457563228</v>
+        <v>6.899009076886077</v>
       </c>
       <c r="M16">
-        <v>17.60790641989619</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>14.57630023304149</v>
+      </c>
+      <c r="N16">
+        <v>12.70780411465214</v>
+      </c>
+      <c r="O16">
+        <v>26.70517291160972</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.76790543757648</v>
+        <v>24.90370605444036</v>
       </c>
       <c r="C17">
-        <v>17.35211366211467</v>
+        <v>13.96084092099136</v>
       </c>
       <c r="D17">
-        <v>3.470822526162216</v>
+        <v>4.102669455252118</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>46.64469059615</v>
+        <v>34.34956683348104</v>
       </c>
       <c r="G17">
-        <v>2.046065928452509</v>
+        <v>2.061723540684355</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>29.95037171432292</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>8.0430386951699</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>19.93745912736013</v>
+        <v>20.38374189779151</v>
       </c>
       <c r="L17">
-        <v>11.73410233118198</v>
+        <v>6.857458273068191</v>
       </c>
       <c r="M17">
-        <v>17.21311191883635</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>14.34784393910157</v>
+      </c>
+      <c r="N17">
+        <v>12.81047976347993</v>
+      </c>
+      <c r="O17">
+        <v>26.35133249660788</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.47178072732563</v>
+        <v>24.57199819014351</v>
       </c>
       <c r="C18">
-        <v>17.1119486398566</v>
+        <v>13.8080963787389</v>
       </c>
       <c r="D18">
-        <v>3.479046316970528</v>
+        <v>4.123774278996239</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>46.14244469150553</v>
+        <v>34.033600993408</v>
       </c>
       <c r="G18">
-        <v>2.048930825341099</v>
+        <v>2.063974413291934</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>29.69297258320661</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>8.007761786446835</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>19.67023370060302</v>
+        <v>20.1156721419047</v>
       </c>
       <c r="L18">
-        <v>11.6057965673664</v>
+        <v>6.833903233284174</v>
       </c>
       <c r="M18">
-        <v>16.98356074390711</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>14.21595164953822</v>
+      </c>
+      <c r="N18">
+        <v>12.86986066340321</v>
+      </c>
+      <c r="O18">
+        <v>26.14911503688897</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.37093848786493</v>
+        <v>24.45897866367251</v>
       </c>
       <c r="C19">
-        <v>17.03020098139801</v>
+        <v>13.756099784166</v>
       </c>
       <c r="D19">
-        <v>3.481839755920961</v>
+        <v>4.13091072121721</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>45.97219269421262</v>
+        <v>33.92670388841148</v>
       </c>
       <c r="G19">
-        <v>2.049901453318923</v>
+        <v>2.06473793443681</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>29.60593320482269</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>7.995906730697283</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>19.57924676618664</v>
+        <v>20.02431563979292</v>
       </c>
       <c r="L19">
-        <v>11.56228256614021</v>
+        <v>6.825986617795905</v>
       </c>
       <c r="M19">
-        <v>16.90540716573651</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>14.17121277074405</v>
+      </c>
+      <c r="N19">
+        <v>12.89002181205415</v>
+      </c>
+      <c r="O19">
+        <v>26.08087131085619</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.82243808454701</v>
+        <v>24.96476214660679</v>
       </c>
       <c r="C20">
-        <v>17.39635941571953</v>
+        <v>13.98897789145392</v>
       </c>
       <c r="D20">
-        <v>3.469304854553229</v>
+        <v>4.098758749542165</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>46.73755090627702</v>
+        <v>34.40808416038202</v>
       </c>
       <c r="G20">
-        <v>2.045535960335786</v>
+        <v>2.061307607797043</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>29.99806416472883</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>8.049610360621118</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>19.98667653008467</v>
+        <v>20.43307517390771</v>
       </c>
       <c r="L20">
-        <v>11.75781483999994</v>
+        <v>6.861845753205002</v>
       </c>
       <c r="M20">
-        <v>17.25539319735224</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>14.3722146513959</v>
+      </c>
+      <c r="N20">
+        <v>12.79951618075883</v>
+      </c>
+      <c r="O20">
+        <v>26.388864615161</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.30027902630007</v>
+        <v>26.61554017437484</v>
       </c>
       <c r="C21">
-        <v>18.59766105483633</v>
+        <v>14.75217656357928</v>
       </c>
       <c r="D21">
-        <v>3.42787516678656</v>
+        <v>3.989920275354154</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>49.29588200372223</v>
+        <v>36.03103664185505</v>
       </c>
       <c r="G21">
-        <v>2.030889110751304</v>
+        <v>2.049868860783659</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>31.32382288646707</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>8.236485797089212</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>21.3212765070364</v>
+        <v>21.7659107427153</v>
       </c>
       <c r="L21">
-        <v>12.47461903805095</v>
+        <v>6.986463254582115</v>
       </c>
       <c r="M21">
-        <v>18.40220643644973</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>15.05489779690198</v>
+      </c>
+      <c r="N21">
+        <v>12.49930879433821</v>
+      </c>
+      <c r="O21">
+        <v>27.43927019502591</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>24.2384519694813</v>
+        <v>27.65913498123317</v>
       </c>
       <c r="C22">
-        <v>19.36261241055937</v>
+        <v>15.2369562223719</v>
       </c>
       <c r="D22">
-        <v>3.401391700862886</v>
+        <v>3.91797328344551</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>50.95939051084886</v>
+        <v>37.09581366192722</v>
       </c>
       <c r="G22">
-        <v>2.021302885469416</v>
+        <v>2.042442923263093</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>32.19722155963007</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>8.36372765935706</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>22.16933769257047</v>
+        <v>22.60763410486838</v>
       </c>
       <c r="L22">
-        <v>12.99047161535732</v>
+        <v>7.071055884788857</v>
       </c>
       <c r="M22">
-        <v>19.13120535546651</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>15.6391866943324</v>
+      </c>
+      <c r="N22">
+        <v>12.30601093170308</v>
+      </c>
+      <c r="O22">
+        <v>28.13753328510401</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.74016274819743</v>
+        <v>27.10531405998811</v>
       </c>
       <c r="C23">
-        <v>18.95609297026568</v>
+        <v>14.97947885897176</v>
       </c>
       <c r="D23">
-        <v>3.415466146056899</v>
+        <v>3.956461554186404</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>50.07221615486228</v>
+        <v>36.52714256660401</v>
       </c>
       <c r="G23">
-        <v>2.026422482107311</v>
+        <v>2.046402708611077</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>31.73037473847188</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>8.29532745464741</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>21.71882835264892</v>
+        <v>22.1610198365303</v>
       </c>
       <c r="L23">
-        <v>12.71635882911736</v>
+        <v>7.025614634345928</v>
       </c>
       <c r="M23">
-        <v>18.74392128115289</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>15.32915442130765</v>
+      </c>
+      <c r="N23">
+        <v>12.40890993701366</v>
+      </c>
+      <c r="O23">
+        <v>27.76376570087951</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.79779467271854</v>
+        <v>24.93717192893793</v>
       </c>
       <c r="C24">
-        <v>17.37636396185328</v>
+        <v>13.97626243335123</v>
       </c>
       <c r="D24">
-        <v>3.469990813073218</v>
+        <v>4.100526935760819</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>46.69557303124666</v>
+        <v>34.38162744147555</v>
       </c>
       <c r="G24">
-        <v>2.045775545976019</v>
+        <v>2.061495623484875</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>29.97650070345216</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>8.046637720082254</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>19.96443482967599</v>
+        <v>20.41078264790091</v>
       </c>
       <c r="L24">
-        <v>11.74709588903208</v>
+        <v>6.859861136891825</v>
       </c>
       <c r="M24">
-        <v>17.23628587921634</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>14.36119836084661</v>
+      </c>
+      <c r="N24">
+        <v>12.80447172229412</v>
+      </c>
+      <c r="O24">
+        <v>26.37189257604758</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.57454432211921</v>
+        <v>22.44124438626832</v>
       </c>
       <c r="C25">
-        <v>15.57708617470254</v>
+        <v>12.83206510387845</v>
       </c>
       <c r="D25">
-        <v>3.530866231131563</v>
+        <v>4.253729340381149</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>43.01000431476405</v>
+        <v>32.08613951874977</v>
       </c>
       <c r="G25">
-        <v>2.066771618717342</v>
+        <v>2.078081785345239</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>28.11016565878516</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>7.798410933138262</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>17.95958760349871</v>
+        <v>18.39143591253475</v>
       </c>
       <c r="L25">
-        <v>10.8034668560005</v>
+        <v>6.694178303280133</v>
       </c>
       <c r="M25">
-        <v>15.51472640058655</v>
+        <v>13.39077797133358</v>
+      </c>
+      <c r="N25">
+        <v>13.24359634265813</v>
+      </c>
+      <c r="O25">
+        <v>24.92050561551704</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_13/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_13/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.51959755349721</v>
+        <v>10.35678271567264</v>
       </c>
       <c r="C2">
-        <v>11.93477795874315</v>
+        <v>5.022035383837222</v>
       </c>
       <c r="D2">
-        <v>4.365920707627843</v>
+        <v>10.81907133061842</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>30.41594809662003</v>
+        <v>64.61257596964791</v>
       </c>
       <c r="G2">
-        <v>2.090649084252123</v>
+        <v>2.111396975956741</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>16.78592803321794</v>
+        <v>9.086688058263755</v>
       </c>
       <c r="L2">
-        <v>6.583031370360136</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>12.66325416338227</v>
+        <v>29.45437355180955</v>
       </c>
       <c r="N2">
-        <v>13.57787260891404</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>23.895314875511</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.2179841059534</v>
+        <v>9.585011857381625</v>
       </c>
       <c r="C3">
-        <v>11.29228549469947</v>
+        <v>4.699095116268952</v>
       </c>
       <c r="D3">
-        <v>4.442123240532721</v>
+        <v>10.35364960617603</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>29.2999847732321</v>
+        <v>60.94667740053899</v>
       </c>
       <c r="G3">
-        <v>2.099427783317998</v>
+        <v>2.122924026425768</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>15.6212754385011</v>
+        <v>8.464835607215571</v>
       </c>
       <c r="L3">
-        <v>6.514269303277596</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>12.16421833870589</v>
+        <v>27.13993832903716</v>
       </c>
       <c r="N3">
-        <v>13.81145266384315</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>23.22849314611212</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.38602311570268</v>
+        <v>9.089422349596681</v>
       </c>
       <c r="C4">
-        <v>10.88093791173899</v>
+        <v>4.494498249195768</v>
       </c>
       <c r="D4">
-        <v>4.489156617982832</v>
+        <v>10.06174826494651</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>28.6241956428243</v>
+        <v>58.62713739632866</v>
       </c>
       <c r="G4">
-        <v>2.104959012457727</v>
+        <v>2.130090017927432</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>14.86761510801139</v>
+        <v>8.066252807085069</v>
       </c>
       <c r="L4">
-        <v>6.475218829331963</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>11.85578064477088</v>
+        <v>25.6755136674998</v>
       </c>
       <c r="N4">
-        <v>13.95842616525188</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>22.83324001517188</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.03892567256002</v>
+        <v>8.881878795881102</v>
       </c>
       <c r="C5">
-        <v>10.70911097636396</v>
+        <v>4.409468211726034</v>
       </c>
       <c r="D5">
-        <v>4.50840647712198</v>
+        <v>9.941245425936936</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>28.35144390682686</v>
+        <v>57.66477505963991</v>
       </c>
       <c r="G5">
-        <v>2.107250144278632</v>
+        <v>2.133037222084472</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>14.55068748220142</v>
+        <v>7.89951170169936</v>
       </c>
       <c r="L5">
-        <v>6.460092320919311</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>11.72974215839777</v>
+        <v>25.06676050472132</v>
       </c>
       <c r="N5">
-        <v>14.01922558953965</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>22.6758008590747</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.98080951722498</v>
+        <v>8.847075495056018</v>
       </c>
       <c r="C6">
-        <v>10.68032714731694</v>
+        <v>4.395247250288229</v>
       </c>
       <c r="D6">
-        <v>4.511608545412157</v>
+        <v>9.921142498075755</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>28.30632132646359</v>
+        <v>57.50394889038197</v>
       </c>
       <c r="G6">
-        <v>2.107632872292828</v>
+        <v>2.133528363236763</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>14.49746660425295</v>
+        <v>7.87156112778762</v>
       </c>
       <c r="L6">
-        <v>6.457627787794981</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>11.70879767999772</v>
+        <v>24.96492469852959</v>
       </c>
       <c r="N6">
-        <v>14.02937642828303</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>22.64987926527186</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.3813744244807</v>
+        <v>9.086646122052926</v>
       </c>
       <c r="C7">
-        <v>10.87863753074114</v>
+        <v>4.493358289706707</v>
       </c>
       <c r="D7">
-        <v>4.489415863020777</v>
+        <v>10.06012939699511</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>28.62050616362645</v>
+        <v>58.61422767184735</v>
       </c>
       <c r="G7">
-        <v>2.104989759111511</v>
+        <v>2.130129649701057</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>14.86338075184432</v>
+        <v>8.064021674975121</v>
       </c>
       <c r="L7">
-        <v>6.475011655931072</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>11.85408202474908</v>
+        <v>25.66735366910493</v>
       </c>
       <c r="N7">
-        <v>13.95924243954254</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>22.83110195547643</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.07768578557715</v>
+        <v>10.09510428133087</v>
       </c>
       <c r="C8">
-        <v>11.71676162811391</v>
+        <v>4.911951102260962</v>
       </c>
       <c r="D8">
-        <v>4.392158226971162</v>
+        <v>10.65985394436464</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>30.0293632537756</v>
+        <v>63.36283942026861</v>
       </c>
       <c r="G8">
-        <v>2.0936477200815</v>
+        <v>2.115356249660215</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>16.39229148833463</v>
+        <v>8.875688283355503</v>
       </c>
       <c r="L8">
-        <v>6.558658415098045</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>12.49169868158247</v>
+        <v>28.66464446717026</v>
       </c>
       <c r="N8">
-        <v>13.65768070782508</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>23.6624907310589</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.30354846019512</v>
+        <v>11.90677042717225</v>
       </c>
       <c r="C9">
-        <v>13.22594050852328</v>
+        <v>5.686360712761721</v>
       </c>
       <c r="D9">
-        <v>4.202296936503402</v>
+        <v>11.78898859471563</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>32.85663522042242</v>
+        <v>72.1360355185984</v>
       </c>
       <c r="G9">
-        <v>2.072445307259981</v>
+        <v>2.086831759232343</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>19.08973269773568</v>
+        <v>10.33957156460275</v>
       </c>
       <c r="L9">
-        <v>6.748277080425915</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>13.71991699708534</v>
+        <v>34.258602748365</v>
       </c>
       <c r="N9">
-        <v>13.09399791825656</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>25.40273466731562</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.53773079065078</v>
+        <v>13.14693592018499</v>
       </c>
       <c r="C10">
-        <v>14.25334768830618</v>
+        <v>6.232915714226006</v>
       </c>
       <c r="D10">
-        <v>4.061662986695432</v>
+        <v>12.59465543613447</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>34.96257259226402</v>
+        <v>78.28059459798243</v>
       </c>
       <c r="G10">
-        <v>2.057379659432695</v>
+        <v>2.065710766371505</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>20.89589975230449</v>
+        <v>11.34561960351409</v>
       </c>
       <c r="L10">
-        <v>6.903797181144872</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>14.60230100037987</v>
+        <v>38.30481362350495</v>
       </c>
       <c r="N10">
-        <v>12.69613207574346</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>26.74572517924696</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.51064874099115</v>
+        <v>13.69414447964976</v>
       </c>
       <c r="C11">
-        <v>14.70354665208405</v>
+        <v>6.4782826637241</v>
       </c>
       <c r="D11">
-        <v>3.99701579761656</v>
+        <v>12.95783598791783</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>35.92563467732598</v>
+        <v>81.02280358535377</v>
       </c>
       <c r="G11">
-        <v>2.050606847623648</v>
+        <v>2.055936436590417</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>21.68127451825808</v>
+        <v>11.79048186805903</v>
       </c>
       <c r="L11">
-        <v>6.978206181516136</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>14.99847965130737</v>
+        <v>40.16720788147125</v>
       </c>
       <c r="N11">
-        <v>12.5185930296336</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>27.37052426563163</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>26.87300165726736</v>
+        <v>13.89919763193927</v>
       </c>
       <c r="C12">
-        <v>14.87161609229169</v>
+        <v>6.570884092555644</v>
       </c>
       <c r="D12">
-        <v>3.972399256980427</v>
+        <v>13.09511731836639</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>36.29102072384917</v>
+        <v>82.05516520049102</v>
       </c>
       <c r="G12">
-        <v>2.048050957239422</v>
+        <v>2.052196594651828</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>21.97362682680226</v>
+        <v>11.95732646780105</v>
       </c>
       <c r="L12">
-        <v>7.006922099206246</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>15.19907693034161</v>
+        <v>40.87988041259326</v>
       </c>
       <c r="N12">
-        <v>12.45186041688669</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>27.60913425988246</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>26.79522943432433</v>
+        <v>13.85512705167337</v>
       </c>
       <c r="C13">
-        <v>14.83552545759159</v>
+        <v>6.550951945595907</v>
       </c>
       <c r="D13">
-        <v>3.977707597519991</v>
+        <v>13.06555776148792</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>36.21229721736147</v>
+        <v>81.83306570107243</v>
       </c>
       <c r="G13">
-        <v>2.048601068615966</v>
+        <v>2.053004028826551</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>21.91088548857702</v>
+        <v>11.92146133572638</v>
       </c>
       <c r="L13">
-        <v>7.000713433090574</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>15.15552652832785</v>
+        <v>40.72597783117687</v>
       </c>
       <c r="N13">
-        <v>12.46621027150726</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>27.55765518081811</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.54058031104278</v>
+        <v>13.71105592323789</v>
       </c>
       <c r="C14">
-        <v>14.71742175447287</v>
+        <v>6.485906352960214</v>
       </c>
       <c r="D14">
-        <v>3.994993548865039</v>
+        <v>12.96913354762149</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>35.95568123280512</v>
+        <v>81.10784689406358</v>
       </c>
       <c r="G14">
-        <v>2.050396412982582</v>
+        <v>2.055629628426177</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>21.70542679193208</v>
+        <v>11.80423921808514</v>
       </c>
       <c r="L14">
-        <v>6.980557781647795</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>15.01291599734155</v>
+        <v>40.22566085684084</v>
       </c>
       <c r="N14">
-        <v>12.51309289907235</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>27.39011430117031</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.38381541279202</v>
+        <v>13.62253551536028</v>
       </c>
       <c r="C15">
-        <v>14.64476784513927</v>
+        <v>6.446028204053639</v>
       </c>
       <c r="D15">
-        <v>4.005562727212095</v>
+        <v>12.91004695568306</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>35.79858719806733</v>
+        <v>80.66289726591577</v>
       </c>
       <c r="G15">
-        <v>2.051497175610007</v>
+        <v>2.057232362586115</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>21.57892452431453</v>
+        <v>11.73223427465973</v>
       </c>
       <c r="L15">
-        <v>6.968282429816782</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>14.94645589558556</v>
+        <v>39.92032302121405</v>
       </c>
       <c r="N15">
-        <v>12.54187478815832</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>27.28775383489927</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.47328893869473</v>
+        <v>13.11085587049282</v>
       </c>
       <c r="C16">
-        <v>14.22358516138283</v>
+        <v>6.21682752312636</v>
       </c>
       <c r="D16">
-        <v>4.06587104195923</v>
+        <v>12.57087182312068</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>34.89973186700743</v>
+        <v>78.1004400905903</v>
       </c>
       <c r="G16">
-        <v>2.057823670938994</v>
+        <v>2.066345038478155</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>20.843857568259</v>
+        <v>11.31630772390806</v>
       </c>
       <c r="L16">
-        <v>6.899009076886077</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>14.57630023304149</v>
+        <v>38.18387364126784</v>
       </c>
       <c r="N16">
-        <v>12.70780411465214</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>26.70517291160972</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>24.90370605444036</v>
+        <v>12.79279662332932</v>
       </c>
       <c r="C17">
-        <v>13.96084092099136</v>
+        <v>6.075488154992486</v>
       </c>
       <c r="D17">
-        <v>4.102669455252118</v>
+        <v>12.36208851063229</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>34.34956683348104</v>
+        <v>76.51583396158814</v>
       </c>
       <c r="G17">
-        <v>2.061723540684355</v>
+        <v>2.071883597732356</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>20.38374189779151</v>
+        <v>11.05802189105606</v>
       </c>
       <c r="L17">
-        <v>6.857458273068191</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>14.34784393910157</v>
+        <v>37.12680985998127</v>
       </c>
       <c r="N17">
-        <v>12.81047976347993</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>26.35133249660788</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.57199819014351</v>
+        <v>12.60824313492428</v>
       </c>
       <c r="C18">
-        <v>13.8080963787389</v>
+        <v>5.993875711225143</v>
       </c>
       <c r="D18">
-        <v>4.123774278996239</v>
+        <v>12.24167156789487</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>34.033600993408</v>
+        <v>75.59930221742937</v>
       </c>
       <c r="G18">
-        <v>2.063974413291934</v>
+        <v>2.075054645866812</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>20.1156721419047</v>
+        <v>10.90824304974263</v>
       </c>
       <c r="L18">
-        <v>6.833903233284174</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>14.21595164953822</v>
+        <v>36.52053735299465</v>
       </c>
       <c r="N18">
-        <v>12.86986066340321</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>26.14911503688897</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.45897866367251</v>
+        <v>12.54547164831359</v>
       </c>
       <c r="C19">
-        <v>13.756099784166</v>
+        <v>5.96618418334761</v>
       </c>
       <c r="D19">
-        <v>4.13091072121721</v>
+        <v>12.2008379394167</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>33.92670388841148</v>
+        <v>75.28806389447026</v>
       </c>
       <c r="G19">
-        <v>2.06473793443681</v>
+        <v>2.076126185315676</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>20.02431563979292</v>
+        <v>10.85731477539634</v>
       </c>
       <c r="L19">
-        <v>6.825986617795905</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>14.17121277074405</v>
+        <v>36.31545164047795</v>
       </c>
       <c r="N19">
-        <v>12.89002181205415</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>26.08087131085619</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>24.96476214660679</v>
+        <v>12.82681980280538</v>
       </c>
       <c r="C20">
-        <v>13.98897789145392</v>
+        <v>6.090565805304964</v>
       </c>
       <c r="D20">
-        <v>4.098758749542165</v>
+        <v>12.38434661396678</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>34.40808416038202</v>
+        <v>76.68503705830668</v>
       </c>
       <c r="G20">
-        <v>2.061307607797043</v>
+        <v>2.071295611155206</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>20.43307517390771</v>
+        <v>11.0856415794985</v>
       </c>
       <c r="L20">
-        <v>6.861845753205002</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>14.3722146513959</v>
+        <v>37.23913132315443</v>
       </c>
       <c r="N20">
-        <v>12.79951618075883</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>26.388864615161</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.61554017437484</v>
+        <v>13.75342937050772</v>
       </c>
       <c r="C21">
-        <v>14.75217656357928</v>
+        <v>6.505018979819756</v>
       </c>
       <c r="D21">
-        <v>3.989920275354154</v>
+        <v>12.99746014139773</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>36.03103664185505</v>
+        <v>81.32101018315497</v>
       </c>
       <c r="G21">
-        <v>2.049868860783659</v>
+        <v>2.054859609232268</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>21.7659107427153</v>
+        <v>11.83871204629943</v>
       </c>
       <c r="L21">
-        <v>6.986463254582115</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>15.05489779690198</v>
+        <v>40.37237251126709</v>
       </c>
       <c r="N21">
-        <v>12.49930879433821</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>27.43927019502591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.65913498123317</v>
+        <v>14.34658172251741</v>
       </c>
       <c r="C22">
-        <v>15.2369562223719</v>
+        <v>6.774148826386956</v>
       </c>
       <c r="D22">
-        <v>3.91797328344551</v>
+        <v>13.3968969257672</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>37.09581366192722</v>
+        <v>84.31678891535951</v>
       </c>
       <c r="G22">
-        <v>2.042442923263093</v>
+        <v>2.043882960475161</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>22.60763410486838</v>
+        <v>12.32160708027206</v>
       </c>
       <c r="L22">
-        <v>7.071055884788857</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>15.6391866943324</v>
+        <v>42.46669795381095</v>
       </c>
       <c r="N22">
-        <v>12.30601093170308</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>28.13753328510401</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.10531405998811</v>
+        <v>14.03103904733479</v>
       </c>
       <c r="C23">
-        <v>14.97947885897176</v>
+        <v>6.630610760211438</v>
       </c>
       <c r="D23">
-        <v>3.956461554186404</v>
+        <v>13.18372675869669</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>36.52714256660401</v>
+        <v>82.72032641930252</v>
       </c>
       <c r="G23">
-        <v>2.046402708611077</v>
+        <v>2.049768933449361</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>22.1610198365303</v>
+        <v>12.0646412702389</v>
       </c>
       <c r="L23">
-        <v>7.025614634345928</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>15.32915442130765</v>
+        <v>41.34278291274938</v>
       </c>
       <c r="N23">
-        <v>12.40890993701366</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>27.76376570087951</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>24.93717192893793</v>
+        <v>12.81144322916655</v>
       </c>
       <c r="C24">
-        <v>13.97626243335123</v>
+        <v>6.08375031543684</v>
       </c>
       <c r="D24">
-        <v>4.100526935760819</v>
+        <v>12.37428493972164</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>34.38162744147555</v>
+        <v>76.60855764368138</v>
       </c>
       <c r="G24">
-        <v>2.061495623484875</v>
+        <v>2.071561479784638</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>20.41078264790091</v>
+        <v>11.07315874314839</v>
       </c>
       <c r="L24">
-        <v>6.859861136891825</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>14.36119836084661</v>
+        <v>37.18834658188212</v>
       </c>
       <c r="N24">
-        <v>12.80447172229412</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>26.37189257604758</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.44124438626832</v>
+        <v>11.43345190855945</v>
       </c>
       <c r="C25">
-        <v>12.83206510387845</v>
+        <v>5.481276588937481</v>
       </c>
       <c r="D25">
-        <v>4.253729340381149</v>
+        <v>11.48819455859673</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>32.08613951874977</v>
+        <v>69.81852319652985</v>
       </c>
       <c r="G25">
-        <v>2.078081785345239</v>
+        <v>2.094540462858029</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>18.39143591253475</v>
+        <v>9.956433903642896</v>
       </c>
       <c r="L25">
-        <v>6.694178303280133</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>13.39077797133358</v>
+        <v>32.76601684437452</v>
       </c>
       <c r="N25">
-        <v>13.24359634265813</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>24.92050561551704</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_13/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_13/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>10.35678271567264</v>
+        <v>10.47906401518543</v>
       </c>
       <c r="C2">
-        <v>5.022035383837222</v>
+        <v>2.653961270849699</v>
       </c>
       <c r="D2">
-        <v>10.81907133061842</v>
+        <v>9.333803477000115</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>64.61257596964791</v>
+        <v>49.96280555393319</v>
       </c>
       <c r="G2">
-        <v>2.111396975956741</v>
+        <v>3.703167164433532</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,13 +448,13 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>9.086688058263755</v>
+        <v>10.08662603548652</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>29.45437355180955</v>
+        <v>19.99211460071158</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>9.585011857381625</v>
+        <v>10.42661692100543</v>
       </c>
       <c r="C3">
-        <v>4.699095116268952</v>
+        <v>2.657330130405804</v>
       </c>
       <c r="D3">
-        <v>10.35364960617603</v>
+        <v>9.160746690925324</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>60.94667740053899</v>
+        <v>48.60146600391727</v>
       </c>
       <c r="G3">
-        <v>2.122924026425768</v>
+        <v>3.706691510337328</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,13 +495,13 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>8.464835607215571</v>
+        <v>10.09979953085342</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>27.13993832903716</v>
+        <v>19.41879217232099</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9.089422349596681</v>
+        <v>10.39965488213434</v>
       </c>
       <c r="C4">
-        <v>4.494498249195768</v>
+        <v>2.663341625120309</v>
       </c>
       <c r="D4">
-        <v>10.06174826494651</v>
+        <v>9.05164467951384</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>58.62713739632866</v>
+        <v>47.74732278537569</v>
       </c>
       <c r="G4">
-        <v>2.130090017927432</v>
+        <v>3.708961357624438</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,13 +542,13 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>8.066252807085069</v>
+        <v>10.1127220480684</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>25.6755136674998</v>
+        <v>19.06661008725517</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>8.881878795881102</v>
+        <v>10.38999760063153</v>
       </c>
       <c r="C5">
-        <v>4.409468211726034</v>
+        <v>2.666770113903738</v>
       </c>
       <c r="D5">
-        <v>9.941245425936936</v>
+        <v>9.006493590726034</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>57.66477505963991</v>
+        <v>47.39504182880655</v>
       </c>
       <c r="G5">
-        <v>2.133037222084472</v>
+        <v>3.709913083969726</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,13 +589,13 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>7.89951170169936</v>
+        <v>10.11919924266584</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>25.06676050472132</v>
+        <v>18.92328746661483</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>8.847075495056018</v>
+        <v>10.38847464407757</v>
       </c>
       <c r="C6">
-        <v>4.395247250288229</v>
+        <v>2.667398090916898</v>
       </c>
       <c r="D6">
-        <v>9.921142498075755</v>
+        <v>8.998955268730187</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>57.50394889038197</v>
+        <v>47.33630325462719</v>
       </c>
       <c r="G6">
-        <v>2.133528363236763</v>
+        <v>3.710072736245908</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,13 +636,13 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>7.87156112778762</v>
+        <v>10.12034777799202</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>24.96492469852959</v>
+        <v>18.89950763372954</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>9.086646122052926</v>
+        <v>10.39951924161929</v>
       </c>
       <c r="C7">
-        <v>4.493358289706707</v>
+        <v>2.663383919178277</v>
       </c>
       <c r="D7">
-        <v>10.06012939699511</v>
+        <v>9.051038521927749</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>58.61422767184735</v>
+        <v>47.74258832363894</v>
       </c>
       <c r="G7">
-        <v>2.130129649701057</v>
+        <v>3.708974084489361</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,13 +683,13 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>8.064021674975121</v>
+        <v>10.11280450437239</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>25.66735366910493</v>
+        <v>19.0646760841262</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10.09510428133087</v>
+        <v>10.45990069120539</v>
       </c>
       <c r="C8">
-        <v>4.911951102260962</v>
+        <v>2.654297863031144</v>
       </c>
       <c r="D8">
-        <v>10.65985394436464</v>
+        <v>9.27473800605366</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>63.36283942026861</v>
+        <v>49.49743185231712</v>
       </c>
       <c r="G8">
-        <v>2.115356249660215</v>
+        <v>3.704360454811416</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,13 +730,13 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>8.875688283355503</v>
+        <v>10.09016268225934</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>28.66464446717026</v>
+        <v>19.79460389265469</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>11.90677042717225</v>
+        <v>10.61922188202003</v>
       </c>
       <c r="C9">
-        <v>5.686360712761721</v>
+        <v>2.814348316586859</v>
       </c>
       <c r="D9">
-        <v>11.78898859471563</v>
+        <v>9.689841615060715</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>72.1360355185984</v>
+        <v>52.77805900098515</v>
       </c>
       <c r="G9">
-        <v>2.086831759232343</v>
+        <v>3.696147808375117</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,13 +777,13 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>10.33957156460275</v>
+        <v>10.08425886028826</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>34.258602748365</v>
+        <v>21.21496407604829</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.14693592018499</v>
+        <v>10.76013674755719</v>
       </c>
       <c r="C10">
-        <v>6.232915714226006</v>
+        <v>3.037189569143757</v>
       </c>
       <c r="D10">
-        <v>12.59465543613447</v>
+        <v>9.979196163181808</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>78.28059459798243</v>
+        <v>55.07138234758506</v>
       </c>
       <c r="G10">
-        <v>2.065710766371505</v>
+        <v>3.690615104908423</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,13 +824,13 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>11.34561960351409</v>
+        <v>10.10350344738039</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>38.30481362350495</v>
+        <v>22.23963556418348</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>13.69414447964976</v>
+        <v>10.82914423912584</v>
       </c>
       <c r="C11">
-        <v>6.4782826637241</v>
+        <v>3.133339249104193</v>
       </c>
       <c r="D11">
-        <v>12.95783598791783</v>
+        <v>10.10719771046524</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>81.02280358535377</v>
+        <v>56.08578146115958</v>
       </c>
       <c r="G11">
-        <v>2.055936436590417</v>
+        <v>3.688205289506725</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,13 +871,13 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>11.79048186805903</v>
+        <v>10.11737722514661</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>40.16720788147125</v>
+        <v>22.69941168586465</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>13.89919763193927</v>
+        <v>10.85595443927393</v>
       </c>
       <c r="C12">
-        <v>6.570884092555644</v>
+        <v>3.169000828789025</v>
       </c>
       <c r="D12">
-        <v>13.09511731836639</v>
+        <v>10.1551282442447</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>82.05516520049102</v>
+        <v>56.46550253764473</v>
       </c>
       <c r="G12">
-        <v>2.052196594651828</v>
+        <v>3.687308018054071</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,13 +918,13 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>11.95732646780105</v>
+        <v>10.12336483300561</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>40.87988041259326</v>
+        <v>22.87243484180428</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>13.85512705167337</v>
+        <v>10.85015064743102</v>
       </c>
       <c r="C13">
-        <v>6.550951945595907</v>
+        <v>3.161353699929873</v>
       </c>
       <c r="D13">
-        <v>13.06555776148792</v>
+        <v>10.14482989515344</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>81.83306570107243</v>
+        <v>56.38392284424221</v>
       </c>
       <c r="G13">
-        <v>2.053004028826551</v>
+        <v>3.687500584121979</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,13 +965,13 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>11.92146133572638</v>
+        <v>10.12204270309788</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>40.72597783117687</v>
+        <v>22.83522197311315</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>13.71105592323789</v>
+        <v>10.83133649022328</v>
       </c>
       <c r="C14">
-        <v>6.485906352960214</v>
+        <v>3.136288127381978</v>
       </c>
       <c r="D14">
-        <v>12.96913354762149</v>
+        <v>10.1111519301294</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>81.10784689406358</v>
+        <v>56.11711113411685</v>
       </c>
       <c r="G14">
-        <v>2.055629628426177</v>
+        <v>3.688131165026046</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,13 +1012,13 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>11.80423921808514</v>
+        <v>10.11785513804175</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>40.22566085684084</v>
+        <v>22.71366905280514</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>13.62253551536028</v>
+        <v>10.81989982176797</v>
       </c>
       <c r="C15">
-        <v>6.446028204053639</v>
+        <v>3.120837386708926</v>
       </c>
       <c r="D15">
-        <v>12.91004695568306</v>
+        <v>10.09045221599285</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>80.66289726591577</v>
+        <v>55.95309961824037</v>
       </c>
       <c r="G15">
-        <v>2.057232362586115</v>
+        <v>3.688519399546338</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,13 +1059,13 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>11.73223427465973</v>
+        <v>10.11538562162553</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>39.92032302121405</v>
+        <v>22.63906840560551</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>13.11085587049282</v>
+        <v>10.75572339571475</v>
       </c>
       <c r="C16">
-        <v>6.21682752312636</v>
+        <v>3.030801103993848</v>
       </c>
       <c r="D16">
-        <v>12.57087182312068</v>
+        <v>9.970756294119676</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>78.1004400905903</v>
+        <v>55.0044855737463</v>
       </c>
       <c r="G16">
-        <v>2.066345038478155</v>
+        <v>3.690774735767063</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,13 +1106,13 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>11.31630772390806</v>
+        <v>10.10269961491565</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>38.18387364126784</v>
+        <v>22.20944534223054</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>12.79279662332932</v>
+        <v>10.71759098952845</v>
       </c>
       <c r="C17">
-        <v>6.075488154992486</v>
+        <v>2.974231088710279</v>
       </c>
       <c r="D17">
-        <v>12.36208851063229</v>
+        <v>9.896383571342868</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>76.51583396158814</v>
+        <v>54.41495923552158</v>
       </c>
       <c r="G17">
-        <v>2.071883597732356</v>
+        <v>3.692185642358558</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,13 +1153,13 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>11.05802189105606</v>
+        <v>10.09622715515422</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>37.12680985998127</v>
+        <v>21.94413212286471</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>12.60824313492428</v>
+        <v>10.69612160443929</v>
       </c>
       <c r="C18">
-        <v>5.993875711225143</v>
+        <v>2.941201811559376</v>
       </c>
       <c r="D18">
-        <v>12.24167156789487</v>
+        <v>9.853266002971207</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>75.59930221742937</v>
+        <v>54.0731782614619</v>
       </c>
       <c r="G18">
-        <v>2.075054645866812</v>
+        <v>3.693007240662539</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,13 +1200,13 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>10.90824304974263</v>
+        <v>10.09298643849013</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>36.52053735299465</v>
+        <v>21.79094228451709</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>12.54547164831359</v>
+        <v>10.68893280782309</v>
       </c>
       <c r="C19">
-        <v>5.96618418334761</v>
+        <v>2.929934140316711</v>
       </c>
       <c r="D19">
-        <v>12.2008379394167</v>
+        <v>9.838609288684992</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>75.28806389447026</v>
+        <v>53.9570015892428</v>
       </c>
       <c r="G19">
-        <v>2.076126185315676</v>
+        <v>3.693287154962471</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,13 +1247,13 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>10.85731477539634</v>
+        <v>10.09197203078605</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>36.31545164047795</v>
+        <v>21.73897918932918</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>12.82681980280538</v>
+        <v>10.72160248054571</v>
       </c>
       <c r="C20">
-        <v>6.090565805304964</v>
+        <v>2.980303934275823</v>
       </c>
       <c r="D20">
-        <v>12.38434661396678</v>
+        <v>9.904336042731872</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>76.68503705830668</v>
+        <v>54.47799684292283</v>
       </c>
       <c r="G20">
-        <v>2.071295611155206</v>
+        <v>3.692034406339059</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,13 +1294,13 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>11.0856415794985</v>
+        <v>10.09686627918659</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>37.23913132315443</v>
+        <v>21.9724373820329</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>13.75342937050772</v>
+        <v>10.83684446977872</v>
       </c>
       <c r="C21">
-        <v>6.505018979819756</v>
+        <v>3.143670776755026</v>
       </c>
       <c r="D21">
-        <v>12.99746014139773</v>
+        <v>10.12105879130864</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>81.32101018315497</v>
+        <v>56.19560184663469</v>
       </c>
       <c r="G21">
-        <v>2.054859609232268</v>
+        <v>3.687945534562668</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,13 +1341,13 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>11.83871204629943</v>
+        <v>10.1190652335732</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>40.37237251126709</v>
+        <v>22.7494027951541</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>14.34658172251741</v>
+        <v>10.91610338936292</v>
       </c>
       <c r="C22">
-        <v>6.774148826386956</v>
+        <v>3.24608076707429</v>
       </c>
       <c r="D22">
-        <v>13.3968969257672</v>
+        <v>10.25953896311266</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>84.31678891535951</v>
+        <v>57.29234794949506</v>
       </c>
       <c r="G22">
-        <v>2.043882960475161</v>
+        <v>3.685362189876396</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,13 +1388,13 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>12.32160708027206</v>
+        <v>10.13784937112296</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>42.46669795381095</v>
+        <v>23.25080773365995</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>14.03103904733479</v>
+        <v>10.87345001326785</v>
       </c>
       <c r="C23">
-        <v>6.630610760211438</v>
+        <v>3.191820557125838</v>
       </c>
       <c r="D23">
-        <v>13.18372675869669</v>
+        <v>10.18592473045905</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>82.72032641930252</v>
+        <v>56.70943547298754</v>
       </c>
       <c r="G23">
-        <v>2.049768933449361</v>
+        <v>3.68673286815801</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,13 +1435,13 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>12.0646412702389</v>
+        <v>10.12743375709615</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>41.34278291274938</v>
+        <v>22.983835173135</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>12.81144322916655</v>
+        <v>10.71978747107676</v>
       </c>
       <c r="C24">
-        <v>6.08375031543684</v>
+        <v>2.977559978385952</v>
       </c>
       <c r="D24">
-        <v>12.37428493972164</v>
+        <v>9.90074184932395</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>76.60855764368138</v>
+        <v>54.44950641138183</v>
       </c>
       <c r="G24">
-        <v>2.071561479784638</v>
+        <v>3.692102747587068</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,13 +1482,13 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>11.07315874314839</v>
+        <v>10.09657583475967</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>37.18834658188212</v>
+        <v>21.95964260993459</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>11.43345190855945</v>
+        <v>10.57184309980934</v>
       </c>
       <c r="C25">
-        <v>5.481276588937481</v>
+        <v>2.727638978878165</v>
       </c>
       <c r="D25">
-        <v>11.48819455859673</v>
+        <v>9.580202371545873</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>69.81852319652985</v>
+        <v>51.90982561400519</v>
       </c>
       <c r="G25">
-        <v>2.094540462858029</v>
+        <v>3.698280986177641</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,13 +1529,13 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>9.956433903642896</v>
+        <v>10.08171810311486</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>32.76601684437452</v>
+        <v>20.83320818590918</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_13/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_13/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>10.47906401518543</v>
+        <v>10.3567827156727</v>
       </c>
       <c r="C2">
-        <v>2.653961270849699</v>
+        <v>5.02203538383736</v>
       </c>
       <c r="D2">
-        <v>9.333803477000115</v>
+        <v>10.81907133061837</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>49.96280555393319</v>
+        <v>64.61257596964795</v>
       </c>
       <c r="G2">
-        <v>3.703167164433532</v>
+        <v>2.111396975956879</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,13 +448,13 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>10.08662603548652</v>
+        <v>9.086688058263805</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>19.99211460071158</v>
+        <v>29.45437355180947</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10.42661692100543</v>
+        <v>9.585011857381728</v>
       </c>
       <c r="C3">
-        <v>2.657330130405804</v>
+        <v>4.699095116269326</v>
       </c>
       <c r="D3">
-        <v>9.160746690925324</v>
+        <v>10.353649606176</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>48.60146600391727</v>
+        <v>60.94667740053862</v>
       </c>
       <c r="G3">
-        <v>3.706691510337328</v>
+        <v>2.122924026425887</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,13 +495,13 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>10.09979953085342</v>
+        <v>8.464835607215745</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>19.41879217232099</v>
+        <v>27.13993832903721</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.39965488213434</v>
+        <v>9.08942234959677</v>
       </c>
       <c r="C4">
-        <v>2.663341625120309</v>
+        <v>4.494498249196112</v>
       </c>
       <c r="D4">
-        <v>9.05164467951384</v>
+        <v>10.06174826494648</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>47.74732278537569</v>
+        <v>58.62713739632899</v>
       </c>
       <c r="G4">
-        <v>3.708961357624438</v>
+        <v>2.130090017927429</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,13 +542,13 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>10.1127220480684</v>
+        <v>8.066252807085277</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>19.06661008725517</v>
+        <v>25.67551366750006</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.38999760063153</v>
+        <v>8.88187879588113</v>
       </c>
       <c r="C5">
-        <v>2.666770113903738</v>
+        <v>4.40946821172592</v>
       </c>
       <c r="D5">
-        <v>9.006493590726034</v>
+        <v>9.941245425937016</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>47.39504182880655</v>
+        <v>57.66477505963969</v>
       </c>
       <c r="G5">
-        <v>3.709913083969726</v>
+        <v>2.133037222084333</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,13 +589,13 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>10.11919924266584</v>
+        <v>7.899511701699372</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>18.92328746661483</v>
+        <v>25.06676050472133</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.38847464407757</v>
+        <v>8.847075495055904</v>
       </c>
       <c r="C6">
-        <v>2.667398090916898</v>
+        <v>4.395247250288372</v>
       </c>
       <c r="D6">
-        <v>8.998955268730187</v>
+        <v>9.921142498075676</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>47.33630325462719</v>
+        <v>57.50394889038143</v>
       </c>
       <c r="G6">
-        <v>3.710072736245908</v>
+        <v>2.133528363236769</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,13 +636,13 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>10.12034777799202</v>
+        <v>7.871561127787589</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>18.89950763372954</v>
+        <v>24.96492469852943</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.39951924161929</v>
+        <v>9.086646122052953</v>
       </c>
       <c r="C7">
-        <v>2.663383919178277</v>
+        <v>4.493358289706693</v>
       </c>
       <c r="D7">
-        <v>9.051038521927749</v>
+        <v>10.06012939699508</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>47.74258832363894</v>
+        <v>58.61422767184727</v>
       </c>
       <c r="G7">
-        <v>3.708974084489361</v>
+        <v>2.130129649701203</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,13 +683,13 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>10.11280450437239</v>
+        <v>8.064021674975127</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>19.0646760841262</v>
+        <v>25.66735366910505</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10.45990069120539</v>
+        <v>10.09510428133087</v>
       </c>
       <c r="C8">
-        <v>2.654297863031144</v>
+        <v>4.911951102260847</v>
       </c>
       <c r="D8">
-        <v>9.27473800605366</v>
+        <v>10.65985394436461</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>49.49743185231712</v>
+        <v>63.36283942026828</v>
       </c>
       <c r="G8">
-        <v>3.704360454811416</v>
+        <v>2.115356249660481</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,13 +730,13 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>10.09016268225934</v>
+        <v>8.875688283355489</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>19.79460389265469</v>
+        <v>28.66464446717026</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>10.61922188202003</v>
+        <v>11.90677042717237</v>
       </c>
       <c r="C9">
-        <v>2.814348316586859</v>
+        <v>5.686360712761603</v>
       </c>
       <c r="D9">
-        <v>9.689841615060715</v>
+        <v>11.78898859471569</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>52.77805900098515</v>
+        <v>72.13603551859853</v>
       </c>
       <c r="G9">
-        <v>3.696147808375117</v>
+        <v>2.086831759232347</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,13 +777,13 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>10.08425886028826</v>
+        <v>10.33957156460283</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>21.21496407604829</v>
+        <v>34.258602748365</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>10.76013674755719</v>
+        <v>13.14693592018493</v>
       </c>
       <c r="C10">
-        <v>3.037189569143757</v>
+        <v>6.23291571422577</v>
       </c>
       <c r="D10">
-        <v>9.979196163181808</v>
+        <v>12.59465543613451</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>55.07138234758506</v>
+        <v>78.28059459798227</v>
       </c>
       <c r="G10">
-        <v>3.690615104908423</v>
+        <v>2.06571076637163</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,13 +824,13 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>10.10350344738039</v>
+        <v>11.34561960351398</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>22.23963556418348</v>
+        <v>38.30481362350491</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>10.82914423912584</v>
+        <v>13.69414447964969</v>
       </c>
       <c r="C11">
-        <v>3.133339249104193</v>
+        <v>6.478282663724007</v>
       </c>
       <c r="D11">
-        <v>10.10719771046524</v>
+        <v>12.95783598791795</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>56.08578146115958</v>
+        <v>81.02280358535371</v>
       </c>
       <c r="G11">
-        <v>3.688205289506725</v>
+        <v>2.05593643659039</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,13 +871,13 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>10.11737722514661</v>
+        <v>11.79048186805896</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>22.69941168586465</v>
+        <v>40.1672078814712</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>10.85595443927393</v>
+        <v>13.89919763193928</v>
       </c>
       <c r="C12">
-        <v>3.169000828789025</v>
+        <v>6.570884092555644</v>
       </c>
       <c r="D12">
-        <v>10.1551282442447</v>
+        <v>13.09511731836649</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>56.46550253764473</v>
+        <v>82.05516520049095</v>
       </c>
       <c r="G12">
-        <v>3.687308018054071</v>
+        <v>2.052196594652082</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,13 +918,13 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>10.12336483300561</v>
+        <v>11.95732646780106</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>22.87243484180428</v>
+        <v>40.87988041259334</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>10.85015064743102</v>
+        <v>13.85512705167345</v>
       </c>
       <c r="C13">
-        <v>3.161353699929873</v>
+        <v>6.550951945595858</v>
       </c>
       <c r="D13">
-        <v>10.14482989515344</v>
+        <v>13.06555776148793</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>56.38392284424221</v>
+        <v>81.83306570107243</v>
       </c>
       <c r="G13">
-        <v>3.687500584121979</v>
+        <v>2.053004028826464</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,13 +965,13 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>10.12204270309788</v>
+        <v>11.92146133572641</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>22.83522197311315</v>
+        <v>40.72597783117704</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>10.83133649022328</v>
+        <v>13.71105592323813</v>
       </c>
       <c r="C14">
-        <v>3.136288127381978</v>
+        <v>6.485906352960194</v>
       </c>
       <c r="D14">
-        <v>10.1111519301294</v>
+        <v>12.96913354762167</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>56.11711113411685</v>
+        <v>81.10784689406402</v>
       </c>
       <c r="G14">
-        <v>3.688131165026046</v>
+        <v>2.055629628425915</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,13 +1012,13 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>10.11785513804175</v>
+        <v>11.8042392180853</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>22.71366905280514</v>
+        <v>40.22566085684085</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>10.81989982176797</v>
+        <v>13.62253551536032</v>
       </c>
       <c r="C15">
-        <v>3.120837386708926</v>
+        <v>6.446028204053521</v>
       </c>
       <c r="D15">
-        <v>10.09045221599285</v>
+        <v>12.9100469556831</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>55.95309961824037</v>
+        <v>80.66289726591557</v>
       </c>
       <c r="G15">
-        <v>3.688519399546338</v>
+        <v>2.057232362586129</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,13 +1059,13 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>10.11538562162553</v>
+        <v>11.73223427465967</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>22.63906840560551</v>
+        <v>39.92032302121405</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>10.75572339571475</v>
+        <v>13.11085587049284</v>
       </c>
       <c r="C16">
-        <v>3.030801103993848</v>
+        <v>6.216827523126224</v>
       </c>
       <c r="D16">
-        <v>9.970756294119676</v>
+        <v>12.57087182312071</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>55.0044855737463</v>
+        <v>78.10044009059044</v>
       </c>
       <c r="G16">
-        <v>3.690774735767063</v>
+        <v>2.066345038478164</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,13 +1106,13 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>10.10269961491565</v>
+        <v>11.3163077239081</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>22.20944534223054</v>
+        <v>38.18387364126774</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>10.71759098952845</v>
+        <v>12.79279662332936</v>
       </c>
       <c r="C17">
-        <v>2.974231088710279</v>
+        <v>6.075488154992719</v>
       </c>
       <c r="D17">
-        <v>9.896383571342868</v>
+        <v>12.36208851063231</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>54.41495923552158</v>
+        <v>76.51583396158853</v>
       </c>
       <c r="G17">
-        <v>3.692185642358558</v>
+        <v>2.071883597732231</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,13 +1153,13 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>10.09622715515422</v>
+        <v>11.05802189105612</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>21.94413212286471</v>
+        <v>37.12680985998126</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>10.69612160443929</v>
+        <v>12.60824313492432</v>
       </c>
       <c r="C18">
-        <v>2.941201811559376</v>
+        <v>5.993875711224987</v>
       </c>
       <c r="D18">
-        <v>9.853266002971207</v>
+        <v>12.24167156789496</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>54.0731782614619</v>
+        <v>75.5993022174297</v>
       </c>
       <c r="G18">
-        <v>3.693007240662539</v>
+        <v>2.075054645866696</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,13 +1200,13 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>10.09298643849013</v>
+        <v>10.9082430497426</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>21.79094228451709</v>
+        <v>36.52053735299479</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>10.68893280782309</v>
+        <v>12.54547164831351</v>
       </c>
       <c r="C19">
-        <v>2.929934140316711</v>
+        <v>5.966184183347735</v>
       </c>
       <c r="D19">
-        <v>9.838609288684992</v>
+        <v>12.20083793941675</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>53.9570015892428</v>
+        <v>75.28806389447023</v>
       </c>
       <c r="G19">
-        <v>3.693287154962471</v>
+        <v>2.076126185315403</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,13 +1247,13 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>10.09197203078605</v>
+        <v>10.85731477539629</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>21.73897918932918</v>
+        <v>36.31545164047797</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>10.72160248054571</v>
+        <v>12.82681980280528</v>
       </c>
       <c r="C20">
-        <v>2.980303934275823</v>
+        <v>6.090565805305226</v>
       </c>
       <c r="D20">
-        <v>9.904336042731872</v>
+        <v>12.38434661396677</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>54.47799684292283</v>
+        <v>76.68503705830659</v>
       </c>
       <c r="G20">
-        <v>3.692034406339059</v>
+        <v>2.071295611155206</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,13 +1294,13 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>10.09686627918659</v>
+        <v>11.08564157949857</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>21.9724373820329</v>
+        <v>37.2391313231543</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>10.83684446977872</v>
+        <v>13.75342937050784</v>
       </c>
       <c r="C21">
-        <v>3.143670776755026</v>
+        <v>6.505018979819596</v>
       </c>
       <c r="D21">
-        <v>10.12105879130864</v>
+        <v>12.99746014139788</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>56.19560184663469</v>
+        <v>81.32101018315564</v>
       </c>
       <c r="G21">
-        <v>3.687945534562668</v>
+        <v>2.054859609232655</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,13 +1341,13 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>10.1190652335732</v>
+        <v>11.83871204629951</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>22.7494027951541</v>
+        <v>40.37237251126719</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>10.91610338936292</v>
+        <v>14.34658172251735</v>
       </c>
       <c r="C22">
-        <v>3.24608076707429</v>
+        <v>6.774148826386988</v>
       </c>
       <c r="D22">
-        <v>10.25953896311266</v>
+        <v>13.39689692576725</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>57.29234794949506</v>
+        <v>84.31678891535981</v>
       </c>
       <c r="G22">
-        <v>3.685362189876396</v>
+        <v>2.043882960475294</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,13 +1388,13 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>10.13784937112296</v>
+        <v>12.321607080272</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>23.25080773365995</v>
+        <v>42.46669795381099</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>10.87345001326785</v>
+        <v>14.03103904733466</v>
       </c>
       <c r="C23">
-        <v>3.191820557125838</v>
+        <v>6.630610760211714</v>
       </c>
       <c r="D23">
-        <v>10.18592473045905</v>
+        <v>13.18372675869661</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>56.70943547298754</v>
+        <v>82.72032641930249</v>
       </c>
       <c r="G23">
-        <v>3.68673286815801</v>
+        <v>2.049768933449485</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,13 +1435,13 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>10.12743375709615</v>
+        <v>12.06464127023887</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>22.983835173135</v>
+        <v>41.34278291274935</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>10.71978747107676</v>
+        <v>12.81144322916663</v>
       </c>
       <c r="C24">
-        <v>2.977559978385952</v>
+        <v>6.083750315436952</v>
       </c>
       <c r="D24">
-        <v>9.90074184932395</v>
+        <v>12.37428493972183</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>54.44950641138183</v>
+        <v>76.60855764368188</v>
       </c>
       <c r="G24">
-        <v>3.692102747587068</v>
+        <v>2.071561479784789</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,13 +1482,13 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>10.09657583475967</v>
+        <v>11.07315874314845</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>21.95964260993459</v>
+        <v>37.18834658188217</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>10.57184309980934</v>
+        <v>11.43345190855941</v>
       </c>
       <c r="C25">
-        <v>2.727638978878165</v>
+        <v>5.481276588937365</v>
       </c>
       <c r="D25">
-        <v>9.580202371545873</v>
+        <v>11.48819455859674</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>51.90982561400519</v>
+        <v>69.81852319652968</v>
       </c>
       <c r="G25">
-        <v>3.698280986177641</v>
+        <v>2.094540462858286</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,13 +1529,13 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>10.08171810311486</v>
+        <v>9.956433903642848</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>20.83320818590918</v>
+        <v>32.7660168443746</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_13/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_13/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>10.3567827156727</v>
+        <v>12.45840137164552</v>
       </c>
       <c r="C2">
-        <v>5.02203538383736</v>
+        <v>9.329070465374761</v>
       </c>
       <c r="D2">
-        <v>10.81907133061837</v>
+        <v>5.417075204047366</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>64.61257596964795</v>
+        <v>17.07533046087621</v>
       </c>
       <c r="G2">
-        <v>2.111396975956879</v>
+        <v>20.86213302336704</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2.484032337441583</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>2.890861608590616</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>8.773602252090912</v>
       </c>
       <c r="K2">
-        <v>9.086688058263805</v>
+        <v>14.91233069840231</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>29.45437355180947</v>
+        <v>10.79311651092364</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>7.580262704403602</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>10.22608964893682</v>
+      </c>
+      <c r="P2">
+        <v>12.78674074590363</v>
+      </c>
+      <c r="Q2">
+        <v>14.05739788546217</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>9.585011857381728</v>
+        <v>11.64591797781457</v>
       </c>
       <c r="C3">
-        <v>4.699095116269326</v>
+        <v>9.199023096343186</v>
       </c>
       <c r="D3">
-        <v>10.353649606176</v>
+        <v>5.191575157789473</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>60.94667740053862</v>
+        <v>16.81563700758828</v>
       </c>
       <c r="G3">
-        <v>2.122924026425887</v>
+        <v>20.58992397265862</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2.639949020085923</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>3.012791862811339</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>8.800623519222183</v>
       </c>
       <c r="K3">
-        <v>8.464835607215745</v>
+        <v>14.95210900869282</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>27.13993832903721</v>
+        <v>10.26281736904117</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>7.385448107298618</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>9.834294719628438</v>
+      </c>
+      <c r="P3">
+        <v>12.90557133694631</v>
+      </c>
+      <c r="Q3">
+        <v>14.03677201725391</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9.08942234959677</v>
+        <v>11.11452477156616</v>
       </c>
       <c r="C4">
-        <v>4.494498249196112</v>
+        <v>9.117411305930197</v>
       </c>
       <c r="D4">
-        <v>10.06174826494648</v>
+        <v>5.047514037707593</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>58.62713739632899</v>
+        <v>16.66153840537811</v>
       </c>
       <c r="G4">
-        <v>2.130090017927429</v>
+        <v>20.43040992724021</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2.739454928832824</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>3.091456542660194</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>8.81964023242946</v>
       </c>
       <c r="K4">
-        <v>8.066252807085277</v>
+        <v>14.97967146892341</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>25.67551366750006</v>
+        <v>9.921701334826261</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>7.263054669980725</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>9.585400525799953</v>
+      </c>
+      <c r="P4">
+        <v>12.98020765485999</v>
+      </c>
+      <c r="Q4">
+        <v>14.02908229110737</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>8.88187879588113</v>
+        <v>10.88514268115941</v>
       </c>
       <c r="C5">
-        <v>4.40946821172592</v>
+        <v>9.085360123948</v>
       </c>
       <c r="D5">
-        <v>9.941245425937016</v>
+        <v>4.988533368914633</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>57.66477505963969</v>
+        <v>16.59523803961199</v>
       </c>
       <c r="G5">
-        <v>2.133037222084333</v>
+        <v>20.35882902065714</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2.781234847247572</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>3.127252019255179</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>8.826689216266557</v>
       </c>
       <c r="K5">
-        <v>7.899511701699372</v>
+        <v>14.98786899120328</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>25.06676050472133</v>
+        <v>9.779090181320207</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>7.212619059738342</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>9.480569797621605</v>
+      </c>
+      <c r="P5">
+        <v>13.01087085734079</v>
+      </c>
+      <c r="Q5">
+        <v>14.02382021883545</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>8.847075495055904</v>
+        <v>10.84089333914502</v>
       </c>
       <c r="C6">
-        <v>4.395247250288372</v>
+        <v>9.082061864791099</v>
       </c>
       <c r="D6">
-        <v>9.921142498075676</v>
+        <v>4.9799983901784</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>57.50394889038143</v>
+        <v>16.57832105692678</v>
       </c>
       <c r="G6">
-        <v>2.133528363236769</v>
+        <v>20.33664358254898</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2.788563023301675</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>3.136830662739316</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>8.826306511107646</v>
       </c>
       <c r="K6">
-        <v>7.871561127787589</v>
+        <v>14.98462098556894</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>24.96492469852943</v>
+        <v>9.755433359836694</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>7.204321530039405</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>9.461297058989482</v>
+      </c>
+      <c r="P6">
+        <v>13.01577529338459</v>
+      </c>
+      <c r="Q6">
+        <v>14.01891810131972</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>9.086646122052953</v>
+        <v>11.09636360127054</v>
       </c>
       <c r="C7">
-        <v>4.493358289706693</v>
+        <v>9.122606232696517</v>
       </c>
       <c r="D7">
-        <v>10.06012939699508</v>
+        <v>5.050342859416542</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>58.61422767184727</v>
+        <v>16.64436083671741</v>
       </c>
       <c r="G7">
-        <v>2.130129649701203</v>
+        <v>20.40112104748536</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2.740905366357812</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>3.101385407310375</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>8.815401891443015</v>
       </c>
       <c r="K7">
-        <v>8.064021674975127</v>
+        <v>14.96708214201722</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>25.66735366910505</v>
+        <v>9.920471522516427</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>7.262700443082521</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>9.579279835012592</v>
+      </c>
+      <c r="P7">
+        <v>12.98008595338697</v>
+      </c>
+      <c r="Q7">
+        <v>14.01782905355826</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10.09510428133087</v>
+        <v>12.16655248614784</v>
       </c>
       <c r="C8">
-        <v>4.911951102260847</v>
+        <v>9.292190023842222</v>
       </c>
       <c r="D8">
-        <v>10.65985394436461</v>
+        <v>5.345106704331104</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>63.36283942026828</v>
+        <v>16.96362337531216</v>
       </c>
       <c r="G8">
-        <v>2.115356249660481</v>
+        <v>20.72993766369123</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2.538119297130426</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>2.944166087111152</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>8.776717205859862</v>
       </c>
       <c r="K8">
-        <v>8.875688283355489</v>
+        <v>14.90868365846683</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>28.66464446717026</v>
+        <v>10.61440495804735</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>7.514155189049548</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>10.08685116053967</v>
+      </c>
+      <c r="P8">
+        <v>12.8268744268755</v>
+      </c>
+      <c r="Q8">
+        <v>14.03457300743994</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>11.90677042717237</v>
+        <v>14.0323125873661</v>
       </c>
       <c r="C9">
-        <v>5.686360712761603</v>
+        <v>9.600869074204008</v>
       </c>
       <c r="D9">
-        <v>11.78898859471569</v>
+        <v>5.871111289302606</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>72.13603551859853</v>
+        <v>17.65820462252583</v>
       </c>
       <c r="G9">
-        <v>2.086831759232347</v>
+        <v>21.48348417147594</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2.168505681666567</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>2.650291450205097</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>8.728301721819252</v>
       </c>
       <c r="K9">
-        <v>10.33957156460283</v>
+        <v>14.84229735756948</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>34.258602748365</v>
+        <v>11.84777359298454</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>7.98274517332382</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>11.01937389674874</v>
+      </c>
+      <c r="P9">
+        <v>12.54006547885652</v>
+      </c>
+      <c r="Q9">
+        <v>14.12780242511914</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.14693592018493</v>
+        <v>15.20196152099053</v>
       </c>
       <c r="C10">
-        <v>6.23291571422577</v>
+        <v>9.852003028734911</v>
       </c>
       <c r="D10">
-        <v>12.59465543613451</v>
+        <v>6.244437692834054</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>78.28059459798227</v>
+        <v>18.11238756810098</v>
       </c>
       <c r="G10">
-        <v>2.06571076637163</v>
+        <v>21.93562629713631</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1.946368447404089</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>2.508068646366023</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>8.683659678212132</v>
       </c>
       <c r="K10">
-        <v>11.34561960351398</v>
+        <v>14.74728481886226</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>38.30481362350491</v>
+        <v>12.68263817224471</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>8.177331714230236</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>11.543470797714</v>
+      </c>
+      <c r="P10">
+        <v>12.33783674205877</v>
+      </c>
+      <c r="Q10">
+        <v>14.16662716313183</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>13.69414447964969</v>
+        <v>15.34037847429646</v>
       </c>
       <c r="C11">
-        <v>6.478282663724007</v>
+        <v>10.28525183355113</v>
       </c>
       <c r="D11">
-        <v>12.95783598791795</v>
+        <v>6.541531708912619</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>81.02280358535371</v>
+        <v>17.6921025382812</v>
       </c>
       <c r="G11">
-        <v>2.05593643659039</v>
+        <v>21.04464205594959</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2.917397821087434</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>2.565828424409444</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>8.487524761293253</v>
       </c>
       <c r="K11">
-        <v>11.79048186805896</v>
+        <v>14.205404028153</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>40.1672078814712</v>
+        <v>13.12117985483572</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>7.186344883504865</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>10.81877990929992</v>
+      </c>
+      <c r="P11">
+        <v>12.26894441790371</v>
+      </c>
+      <c r="Q11">
+        <v>13.73360091966491</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>13.89919763193928</v>
+        <v>15.2364510391908</v>
       </c>
       <c r="C12">
-        <v>6.570884092555644</v>
+        <v>10.65592620574076</v>
       </c>
       <c r="D12">
-        <v>13.09511731836649</v>
+        <v>6.713364542153749</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>82.05516520049095</v>
+        <v>17.25195941280347</v>
       </c>
       <c r="G12">
-        <v>2.052196594652082</v>
+        <v>20.22025658339582</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>4.266356200925274</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>2.571558091486199</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>8.335164834915028</v>
       </c>
       <c r="K12">
-        <v>11.95732646780106</v>
+        <v>13.79470442641004</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>40.87988041259334</v>
+        <v>13.32170039846215</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>6.427176624979744</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>10.10379333945198</v>
+      </c>
+      <c r="P12">
+        <v>12.2681316952837</v>
+      </c>
+      <c r="Q12">
+        <v>13.36977668786754</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>13.85512705167345</v>
+        <v>14.91926221530506</v>
       </c>
       <c r="C13">
-        <v>6.550951945595858</v>
+        <v>11.00245685542589</v>
       </c>
       <c r="D13">
-        <v>13.06555776148793</v>
+        <v>6.807576094335022</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>81.83306570107243</v>
+        <v>16.73842797010393</v>
       </c>
       <c r="G13">
-        <v>2.053004028826464</v>
+        <v>19.34497896529896</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>5.669618848488854</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>2.543631199929285</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>8.200489298702523</v>
       </c>
       <c r="K13">
-        <v>11.92146133572641</v>
+        <v>13.44289038002117</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>40.72597783117704</v>
+        <v>13.35738306133898</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>5.840613818318015</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>9.334742644082541</v>
+      </c>
+      <c r="P13">
+        <v>12.31585837507184</v>
+      </c>
+      <c r="Q13">
+        <v>13.0187997667595</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>13.71105592323813</v>
+        <v>14.59276212637829</v>
       </c>
       <c r="C14">
-        <v>6.485906352960194</v>
+        <v>11.24276764523152</v>
       </c>
       <c r="D14">
-        <v>12.96913354762167</v>
+        <v>6.840388756495875</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>81.10784689406402</v>
+        <v>16.33898455040363</v>
       </c>
       <c r="G14">
-        <v>2.055629628425915</v>
+        <v>18.70019079852763</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>6.667784952733784</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>2.510504453181261</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>8.113689716237763</v>
       </c>
       <c r="K14">
-        <v>11.8042392180853</v>
+        <v>13.22487808809713</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>40.22566085684085</v>
+        <v>13.30843923855615</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>5.561387381822874</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>8.768569352427106</v>
+      </c>
+      <c r="P14">
+        <v>12.37180609980153</v>
+      </c>
+      <c r="Q14">
+        <v>12.77715301096341</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>13.62253551536032</v>
+        <v>14.46156458396423</v>
       </c>
       <c r="C15">
-        <v>6.446028204053521</v>
+        <v>11.2931784889893</v>
       </c>
       <c r="D15">
-        <v>12.9100469556831</v>
+        <v>6.832903020999553</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>80.66289726591557</v>
+        <v>16.22170513719673</v>
       </c>
       <c r="G15">
-        <v>2.057232362586129</v>
+        <v>18.52498655893131</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>6.900269896011858</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>2.513225631179739</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>8.095396050099369</v>
       </c>
       <c r="K15">
-        <v>11.73223427465967</v>
+        <v>13.18039232736813</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>39.92032302121405</v>
+        <v>13.26111477060312</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>5.514234684806036</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>8.617046469087054</v>
+      </c>
+      <c r="P15">
+        <v>12.39398016908395</v>
+      </c>
+      <c r="Q15">
+        <v>12.71852048748201</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>13.11085587049284</v>
+        <v>14.01514097191876</v>
       </c>
       <c r="C16">
-        <v>6.216827523126224</v>
+        <v>11.12070170801107</v>
       </c>
       <c r="D16">
-        <v>12.57087182312071</v>
+        <v>6.666960695841591</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>78.10044009059044</v>
+        <v>16.10277290364428</v>
       </c>
       <c r="G16">
-        <v>2.066345038478164</v>
+        <v>18.46712998993145</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>6.699724587224725</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>2.594003470113992</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>8.138675559501586</v>
       </c>
       <c r="K16">
-        <v>11.3163077239081</v>
+        <v>13.28854459468992</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>38.18387364126774</v>
+        <v>12.91401915704181</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>5.532885045462772</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>8.51522549338117</v>
+      </c>
+      <c r="P16">
+        <v>12.46107425094769</v>
+      </c>
+      <c r="Q16">
+        <v>12.76310052472885</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>12.79279662332936</v>
+        <v>13.84739993519328</v>
       </c>
       <c r="C17">
-        <v>6.075488154992719</v>
+        <v>10.85317458786414</v>
       </c>
       <c r="D17">
-        <v>12.36208851063231</v>
+        <v>6.51921909078855</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>76.51583396158853</v>
+        <v>16.22940104930819</v>
       </c>
       <c r="G17">
-        <v>2.071883597732231</v>
+        <v>18.77155265864857</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>5.984261519117801</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>2.637738731237077</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>8.218074107358145</v>
       </c>
       <c r="K17">
-        <v>11.05802189105612</v>
+        <v>13.48447436962011</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>37.12680985998126</v>
+        <v>12.669572950509</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>5.671931113757965</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>8.743916968504717</v>
+      </c>
+      <c r="P17">
+        <v>12.48398015756831</v>
+      </c>
+      <c r="Q17">
+        <v>12.92625505465278</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>12.60824313492432</v>
+        <v>13.91889329874385</v>
       </c>
       <c r="C18">
-        <v>5.993875711224987</v>
+        <v>10.48918480696309</v>
       </c>
       <c r="D18">
-        <v>12.24167156789496</v>
+        <v>6.369932529479143</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>75.5993022174297</v>
+        <v>16.58880570392293</v>
       </c>
       <c r="G18">
-        <v>2.075054645866696</v>
+        <v>19.43779087619836</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>4.77670741170598</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>2.641467100799029</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>8.340052356539076</v>
       </c>
       <c r="K18">
-        <v>10.9082430497426</v>
+        <v>13.79387530013433</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>36.52053735299479</v>
+        <v>12.4900090890118</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>6.053780399281703</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>9.295429667747436</v>
+      </c>
+      <c r="P18">
+        <v>12.47694174229449</v>
+      </c>
+      <c r="Q18">
+        <v>13.21652464092107</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>12.54547164831351</v>
+        <v>14.15488780944649</v>
       </c>
       <c r="C19">
-        <v>5.966184183347735</v>
+        <v>10.14025931563612</v>
       </c>
       <c r="D19">
-        <v>12.20083793941675</v>
+        <v>6.239383254415878</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>75.28806389447023</v>
+        <v>17.07541318988642</v>
       </c>
       <c r="G19">
-        <v>2.076126185315403</v>
+        <v>20.29484600997669</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>3.378391014792839</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>2.631056217394463</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>8.480370883687655</v>
       </c>
       <c r="K19">
-        <v>10.85731477539629</v>
+        <v>14.16571776586288</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>36.31545164047797</v>
+        <v>12.38019989813078</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>6.746464033098705</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>10.06470161026126</v>
+      </c>
+      <c r="P19">
+        <v>12.4571343283173</v>
+      </c>
+      <c r="Q19">
+        <v>13.56950776570117</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>12.82681980280528</v>
+        <v>14.8666638248329</v>
       </c>
       <c r="C20">
-        <v>6.090565805305226</v>
+        <v>9.807112391125871</v>
       </c>
       <c r="D20">
-        <v>12.38434661396677</v>
+        <v>6.158991672962425</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>76.68503705830659</v>
+        <v>17.94202075117627</v>
       </c>
       <c r="G20">
-        <v>2.071295611155206</v>
+        <v>21.72739544794688</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2.005394801281407</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>2.544164251926995</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>8.680464166608209</v>
       </c>
       <c r="K20">
-        <v>11.08564157949857</v>
+        <v>14.73009049692189</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>37.2391313231543</v>
+        <v>12.47126047955261</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>8.122052738776613</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>11.39124586759542</v>
+      </c>
+      <c r="P20">
+        <v>12.39036481796483</v>
+      </c>
+      <c r="Q20">
+        <v>14.11876325251726</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>13.75342937050784</v>
+        <v>15.78843763123917</v>
       </c>
       <c r="C21">
-        <v>6.505018979819596</v>
+        <v>9.948322459733646</v>
       </c>
       <c r="D21">
-        <v>12.99746014139788</v>
+        <v>6.410173264903992</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>81.32101018315564</v>
+        <v>18.41588712385596</v>
       </c>
       <c r="G21">
-        <v>2.054859609232655</v>
+        <v>22.29416519406675</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1.792394837796914</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>2.620814061488934</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>8.683954909654542</v>
       </c>
       <c r="K21">
-        <v>11.83871204629951</v>
+        <v>14.75878897410238</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>40.37237251126719</v>
+        <v>13.07177495270312</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>8.472133999467131</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>11.9522129241664</v>
+      </c>
+      <c r="P21">
+        <v>12.23659425910938</v>
+      </c>
+      <c r="Q21">
+        <v>14.24315156936947</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>14.34658172251735</v>
+        <v>16.35595749598849</v>
       </c>
       <c r="C22">
-        <v>6.774148826386988</v>
+        <v>10.046742455344</v>
       </c>
       <c r="D22">
-        <v>13.39689692576725</v>
+        <v>6.572530016324308</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>84.31678891535981</v>
+        <v>18.71107875229574</v>
       </c>
       <c r="G22">
-        <v>2.043882960475294</v>
+        <v>22.63973476420486</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1.670306278907555</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>2.708775208092089</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>8.684162991800624</v>
       </c>
       <c r="K22">
-        <v>12.321607080272</v>
+        <v>14.76803637118178</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>42.46669795381099</v>
+        <v>13.45286617839009</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>8.628358380466539</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>12.2566888125311</v>
+      </c>
+      <c r="P22">
+        <v>12.13763907257774</v>
+      </c>
+      <c r="Q22">
+        <v>14.31755461571702</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>14.03103904733466</v>
+        <v>16.06846368266472</v>
       </c>
       <c r="C23">
-        <v>6.630610760211714</v>
+        <v>9.987181270921036</v>
       </c>
       <c r="D23">
-        <v>13.18372675869661</v>
+        <v>6.482863960568603</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>82.72032641930249</v>
+        <v>18.57038186416071</v>
       </c>
       <c r="G23">
-        <v>2.049768933449485</v>
+        <v>22.48482925732014</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1.73439218480909</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>2.65666077009498</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>8.68877598465639</v>
       </c>
       <c r="K23">
-        <v>12.06464127023887</v>
+        <v>14.77735530578153</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>41.34278291274935</v>
+        <v>13.25020055474825</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>8.544849995198723</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>12.09958954698042</v>
+      </c>
+      <c r="P23">
+        <v>12.19023648646329</v>
+      </c>
+      <c r="Q23">
+        <v>14.28993966846138</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>12.81144322916663</v>
+        <v>14.90467108709767</v>
       </c>
       <c r="C24">
-        <v>6.083750315436952</v>
+        <v>9.770282176825512</v>
       </c>
       <c r="D24">
-        <v>12.37428493972183</v>
+        <v>6.137216787511882</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>76.60855764368188</v>
+        <v>18.01714514369634</v>
       </c>
       <c r="G24">
-        <v>2.071561479784789</v>
+        <v>21.86337521065553</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1.984285353345067</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>2.522740589936565</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>8.703763212779796</v>
       </c>
       <c r="K24">
-        <v>11.07315874314845</v>
+        <v>14.79691611617492</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>37.18834658188217</v>
+        <v>12.45314009194885</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>8.222064341097264</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>11.47783592070511</v>
+      </c>
+      <c r="P24">
+        <v>12.39228465952375</v>
+      </c>
+      <c r="Q24">
+        <v>14.17648988961606</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>11.43345190855941</v>
+        <v>13.53217742933169</v>
       </c>
       <c r="C25">
-        <v>5.481276588937365</v>
+        <v>9.52945490469323</v>
       </c>
       <c r="D25">
-        <v>11.48819455859674</v>
+        <v>5.739840754109618</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>69.81852319652968</v>
+        <v>17.43847287199249</v>
       </c>
       <c r="G25">
-        <v>2.094540462858286</v>
+        <v>21.22473839537052</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2.266785826538184</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>2.744191411730021</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>8.7314997398523</v>
       </c>
       <c r="K25">
-        <v>9.956433903642848</v>
+        <v>14.83479790665052</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>32.7660168443746</v>
+        <v>11.52914299077566</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>7.859455490653818</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>10.76766275441193</v>
+      </c>
+      <c r="P25">
+        <v>12.61597326336582</v>
+      </c>
+      <c r="Q25">
+        <v>14.07830317519624</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_13/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_13/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.45840137164552</v>
+        <v>12.28609654725502</v>
       </c>
       <c r="C2">
-        <v>9.329070465374761</v>
+        <v>9.014170867657567</v>
       </c>
       <c r="D2">
-        <v>5.417075204047366</v>
+        <v>5.452195099253695</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>17.07533046087621</v>
+        <v>16.70803253266407</v>
       </c>
       <c r="G2">
-        <v>20.86213302336704</v>
+        <v>19.59011578427548</v>
       </c>
       <c r="H2">
-        <v>2.484032337441583</v>
+        <v>2.410702584731238</v>
       </c>
       <c r="I2">
-        <v>2.890861608590616</v>
+        <v>2.800463448919741</v>
       </c>
       <c r="J2">
-        <v>8.773602252090912</v>
+        <v>9.067728533104424</v>
       </c>
       <c r="K2">
-        <v>14.91233069840231</v>
+        <v>14.47073087466798</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>12.13914782697153</v>
       </c>
       <c r="M2">
-        <v>10.79311651092364</v>
+        <v>9.258674683271712</v>
       </c>
       <c r="N2">
-        <v>7.580262704403602</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>10.22608964893682</v>
+        <v>10.81131211982261</v>
       </c>
       <c r="P2">
-        <v>12.78674074590363</v>
+        <v>7.657518777771337</v>
       </c>
       <c r="Q2">
-        <v>14.05739788546217</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>10.12745545095127</v>
+      </c>
+      <c r="R2">
+        <v>12.69668166605667</v>
+      </c>
+      <c r="S2">
+        <v>13.76353547441703</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.64591797781457</v>
+        <v>11.51749609247087</v>
       </c>
       <c r="C3">
-        <v>9.199023096343186</v>
+        <v>8.838121788976146</v>
       </c>
       <c r="D3">
-        <v>5.191575157789473</v>
+        <v>5.21170415472537</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>16.81563700758828</v>
+        <v>16.48266955888545</v>
       </c>
       <c r="G3">
-        <v>20.58992397265862</v>
+        <v>19.39610781383888</v>
       </c>
       <c r="H3">
-        <v>2.639949020085923</v>
+        <v>2.557192858232278</v>
       </c>
       <c r="I3">
-        <v>3.012791862811339</v>
+        <v>2.910063770487358</v>
       </c>
       <c r="J3">
-        <v>8.800623519222183</v>
+        <v>9.074971018419211</v>
       </c>
       <c r="K3">
-        <v>14.95210900869282</v>
+        <v>14.53205445992069</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>12.271876936795</v>
       </c>
       <c r="M3">
-        <v>10.26281736904117</v>
+        <v>9.246949974336562</v>
       </c>
       <c r="N3">
-        <v>7.385448107298618</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>9.834294719628438</v>
+        <v>10.28214845471842</v>
       </c>
       <c r="P3">
-        <v>12.90557133694631</v>
+        <v>7.46857122527288</v>
       </c>
       <c r="Q3">
-        <v>14.03677201725391</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>9.746014938605981</v>
+      </c>
+      <c r="R3">
+        <v>12.80657167417061</v>
+      </c>
+      <c r="S3">
+        <v>13.7642496469874</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.11452477156616</v>
+        <v>11.01484559341234</v>
       </c>
       <c r="C4">
-        <v>9.117411305930197</v>
+        <v>8.728456820427706</v>
       </c>
       <c r="D4">
-        <v>5.047514037707593</v>
+        <v>5.058015641662346</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>16.66153840537811</v>
+        <v>16.34887117240949</v>
       </c>
       <c r="G4">
-        <v>20.43040992724021</v>
+        <v>19.28611613621626</v>
       </c>
       <c r="H4">
-        <v>2.739454928832824</v>
+        <v>2.650713317297372</v>
       </c>
       <c r="I4">
-        <v>3.091456542660194</v>
+        <v>2.98109302650084</v>
       </c>
       <c r="J4">
-        <v>8.81964023242946</v>
+        <v>9.080428681823411</v>
       </c>
       <c r="K4">
-        <v>14.97967146892341</v>
+        <v>14.57193733957502</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>12.35543683867245</v>
       </c>
       <c r="M4">
-        <v>9.921701334826261</v>
+        <v>9.256708954037736</v>
       </c>
       <c r="N4">
-        <v>7.263054669980725</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>9.585400525799953</v>
+        <v>9.941848171858332</v>
       </c>
       <c r="P4">
-        <v>12.98020765485999</v>
+        <v>7.35014514028332</v>
       </c>
       <c r="Q4">
-        <v>14.02908229110737</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>9.503489539552449</v>
+      </c>
+      <c r="R4">
+        <v>12.87588902134211</v>
+      </c>
+      <c r="S4">
+        <v>13.76883428002361</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.88514268115941</v>
+        <v>10.79763979538449</v>
       </c>
       <c r="C5">
-        <v>9.085360123948</v>
+        <v>8.685626747914334</v>
       </c>
       <c r="D5">
-        <v>4.988533368914633</v>
+        <v>4.995039006176995</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>16.59523803961199</v>
+        <v>16.29059705456828</v>
       </c>
       <c r="G5">
-        <v>20.35882902065714</v>
+        <v>19.23488164268724</v>
       </c>
       <c r="H5">
-        <v>2.781234847247572</v>
+        <v>2.690000652930221</v>
       </c>
       <c r="I5">
-        <v>3.127252019255179</v>
+        <v>3.014246199350573</v>
       </c>
       <c r="J5">
-        <v>8.826689216266557</v>
+        <v>9.081584163425974</v>
       </c>
       <c r="K5">
-        <v>14.98786899120328</v>
+        <v>14.58498587887708</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>12.38635638862343</v>
       </c>
       <c r="M5">
-        <v>9.779090181320207</v>
+        <v>9.262982058052408</v>
       </c>
       <c r="N5">
-        <v>7.212619059738342</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>9.480569797621605</v>
+        <v>9.799611099676508</v>
       </c>
       <c r="P5">
-        <v>13.01087085734079</v>
+        <v>7.301420518821875</v>
       </c>
       <c r="Q5">
-        <v>14.02382021883545</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>9.401237430951188</v>
+      </c>
+      <c r="R5">
+        <v>12.90447972403089</v>
+      </c>
+      <c r="S5">
+        <v>13.76836727150899</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.84089333914502</v>
+        <v>10.75544187357904</v>
       </c>
       <c r="C6">
-        <v>9.082061864791099</v>
+        <v>8.681269638374252</v>
       </c>
       <c r="D6">
-        <v>4.9799983901784</v>
+        <v>4.985868467418093</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>16.57832105692678</v>
+        <v>16.27496141694997</v>
       </c>
       <c r="G6">
-        <v>20.33664358254898</v>
+        <v>19.21590200796666</v>
       </c>
       <c r="H6">
-        <v>2.788563023301675</v>
+        <v>2.696908309204426</v>
       </c>
       <c r="I6">
-        <v>3.136830662739316</v>
+        <v>3.024025686688951</v>
       </c>
       <c r="J6">
-        <v>8.826306511107646</v>
+        <v>9.08017683661876</v>
       </c>
       <c r="K6">
-        <v>14.98462098556894</v>
+        <v>14.58259936347243</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>12.38706537984012</v>
       </c>
       <c r="M6">
-        <v>9.755433359836694</v>
+        <v>9.261871320867696</v>
       </c>
       <c r="N6">
-        <v>7.204321530039405</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>9.461297058989482</v>
+        <v>9.776027594414643</v>
       </c>
       <c r="P6">
-        <v>13.01577529338459</v>
+        <v>7.293415166573662</v>
       </c>
       <c r="Q6">
-        <v>14.01891810131972</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>9.382377082545858</v>
+      </c>
+      <c r="R6">
+        <v>12.90911036779335</v>
+      </c>
+      <c r="S6">
+        <v>13.76425199430706</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.09636360127054</v>
+        <v>10.99434256460826</v>
       </c>
       <c r="C7">
-        <v>9.122606232696517</v>
+        <v>8.733121313244432</v>
       </c>
       <c r="D7">
-        <v>5.050342859416542</v>
+        <v>5.063367696925201</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>16.64436083671741</v>
+        <v>16.32126355557914</v>
       </c>
       <c r="G7">
-        <v>20.40112104748536</v>
+        <v>19.33427247376277</v>
       </c>
       <c r="H7">
-        <v>2.740905366357812</v>
+        <v>2.652454225552421</v>
       </c>
       <c r="I7">
-        <v>3.101385407310375</v>
+        <v>2.993074781771973</v>
       </c>
       <c r="J7">
-        <v>8.815401891443015</v>
+        <v>9.045754307419534</v>
       </c>
       <c r="K7">
-        <v>14.96708214201722</v>
+        <v>14.55530479938929</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>12.33989264235121</v>
       </c>
       <c r="M7">
-        <v>9.920471522516427</v>
+        <v>9.247451108423778</v>
       </c>
       <c r="N7">
-        <v>7.262700443082521</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>9.579279835012592</v>
+        <v>9.937290472279285</v>
       </c>
       <c r="P7">
-        <v>12.98008595338697</v>
+        <v>7.34974005654254</v>
       </c>
       <c r="Q7">
-        <v>14.01782905355826</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>9.496562327716514</v>
+      </c>
+      <c r="R7">
+        <v>12.87585931687106</v>
+      </c>
+      <c r="S7">
+        <v>13.75064550337045</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.16655248614784</v>
+        <v>12.0013135633558</v>
       </c>
       <c r="C8">
-        <v>9.292190023842222</v>
+        <v>8.956340360117601</v>
       </c>
       <c r="D8">
-        <v>5.345106704331104</v>
+        <v>5.383171239420022</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>16.96362337531216</v>
+        <v>16.57418541729027</v>
       </c>
       <c r="G8">
-        <v>20.72993766369123</v>
+        <v>19.7400586392152</v>
       </c>
       <c r="H8">
-        <v>2.538119297130426</v>
+        <v>2.46259349969016</v>
       </c>
       <c r="I8">
-        <v>2.944166087111152</v>
+        <v>2.852927278203894</v>
       </c>
       <c r="J8">
-        <v>8.776717205859862</v>
+        <v>8.965690266770084</v>
       </c>
       <c r="K8">
-        <v>14.90868365846683</v>
+        <v>14.46093337123922</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>12.15786575965888</v>
       </c>
       <c r="M8">
-        <v>10.61440495804735</v>
+        <v>9.231250203936588</v>
       </c>
       <c r="N8">
-        <v>7.514155189049548</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>10.08685116053967</v>
+        <v>10.62248580508915</v>
       </c>
       <c r="P8">
-        <v>12.8268744268755</v>
+        <v>7.593165329699582</v>
       </c>
       <c r="Q8">
-        <v>14.03457300743994</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>9.989201454698426</v>
+      </c>
+      <c r="R8">
+        <v>12.73403566723632</v>
+      </c>
+      <c r="S8">
+        <v>13.72516112551149</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.0323125873661</v>
+        <v>13.76619749361416</v>
       </c>
       <c r="C9">
-        <v>9.600869074204008</v>
+        <v>9.375939769596339</v>
       </c>
       <c r="D9">
-        <v>5.871111289302606</v>
+        <v>5.945367304941365</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>17.65820462252583</v>
+        <v>17.17193641955887</v>
       </c>
       <c r="G9">
-        <v>21.48348417147594</v>
+        <v>20.3710258656136</v>
       </c>
       <c r="H9">
-        <v>2.168505681666567</v>
+        <v>2.1156149074366</v>
       </c>
       <c r="I9">
-        <v>2.650291450205097</v>
+        <v>2.587868536261623</v>
       </c>
       <c r="J9">
-        <v>8.728301721819252</v>
+        <v>8.931742337836528</v>
       </c>
       <c r="K9">
-        <v>14.84229735756948</v>
+        <v>14.33173227330517</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>11.850767996326</v>
       </c>
       <c r="M9">
-        <v>11.84777359298454</v>
+        <v>9.356994664049987</v>
       </c>
       <c r="N9">
-        <v>7.98274517332382</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>11.01937389674874</v>
+        <v>11.85180595037193</v>
       </c>
       <c r="P9">
-        <v>12.54006547885652</v>
+        <v>8.049134538754668</v>
       </c>
       <c r="Q9">
-        <v>14.12780242511914</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>10.89580176951711</v>
+      </c>
+      <c r="R9">
+        <v>12.4709152167418</v>
+      </c>
+      <c r="S9">
+        <v>13.75452922680906</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.20196152099053</v>
+        <v>14.86331137633384</v>
       </c>
       <c r="C10">
-        <v>9.852003028734911</v>
+        <v>9.702952939591119</v>
       </c>
       <c r="D10">
-        <v>6.244437692834054</v>
+        <v>6.354192686073986</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>18.11238756810098</v>
+        <v>17.50332031538959</v>
       </c>
       <c r="G10">
-        <v>21.93562629713631</v>
+        <v>21.18289427571515</v>
       </c>
       <c r="H10">
-        <v>1.946368447404089</v>
+        <v>1.910577815412865</v>
       </c>
       <c r="I10">
-        <v>2.508068646366023</v>
+        <v>2.556732237743468</v>
       </c>
       <c r="J10">
-        <v>8.683659678212132</v>
+        <v>8.730316250411898</v>
       </c>
       <c r="K10">
-        <v>14.74728481886226</v>
+        <v>14.16963637392731</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>11.57948964521847</v>
       </c>
       <c r="M10">
-        <v>12.68263817224471</v>
+        <v>9.461502413896108</v>
       </c>
       <c r="N10">
-        <v>8.177331714230236</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>11.543470797714</v>
+        <v>12.66806071191839</v>
       </c>
       <c r="P10">
-        <v>12.33783674205877</v>
+        <v>8.235922794418766</v>
       </c>
       <c r="Q10">
-        <v>14.16662716313183</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>11.39912190142514</v>
+      </c>
+      <c r="R10">
+        <v>12.29047485991822</v>
+      </c>
+      <c r="S10">
+        <v>13.70818447657796</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.34037847429646</v>
+        <v>14.991517359594</v>
       </c>
       <c r="C11">
-        <v>10.28525183355113</v>
+        <v>10.19426279863468</v>
       </c>
       <c r="D11">
-        <v>6.541531708912619</v>
+        <v>6.679727725325171</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>17.6921025382812</v>
+        <v>16.98686269294277</v>
       </c>
       <c r="G11">
-        <v>21.04464205594959</v>
+        <v>21.27185492800423</v>
       </c>
       <c r="H11">
-        <v>2.917397821087434</v>
+        <v>2.897674233821524</v>
       </c>
       <c r="I11">
-        <v>2.565828424409444</v>
+        <v>2.608912241057132</v>
       </c>
       <c r="J11">
-        <v>8.487524761293253</v>
+        <v>8.267216043773082</v>
       </c>
       <c r="K11">
-        <v>14.205404028153</v>
+        <v>13.6281218937471</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>11.14689052468646</v>
       </c>
       <c r="M11">
-        <v>13.12117985483572</v>
+        <v>9.110463508230957</v>
       </c>
       <c r="N11">
-        <v>7.186344883504865</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>10.81877990929992</v>
+        <v>13.07005005178393</v>
       </c>
       <c r="P11">
-        <v>12.26894441790371</v>
+        <v>7.239781077168376</v>
       </c>
       <c r="Q11">
-        <v>13.73360091966491</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>10.67329068598897</v>
+      </c>
+      <c r="R11">
+        <v>12.25320563989956</v>
+      </c>
+      <c r="S11">
+        <v>13.21717171820304</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.2364510391908</v>
+        <v>14.90076315932972</v>
       </c>
       <c r="C12">
-        <v>10.65592620574076</v>
+        <v>10.58607434448883</v>
       </c>
       <c r="D12">
-        <v>6.713364542153749</v>
+        <v>6.86067514521157</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>17.25195941280347</v>
+        <v>16.52741506948262</v>
       </c>
       <c r="G12">
-        <v>20.22025658339582</v>
+        <v>20.92909757680218</v>
       </c>
       <c r="H12">
-        <v>4.266356200925274</v>
+        <v>4.253317957540899</v>
       </c>
       <c r="I12">
-        <v>2.571558091486199</v>
+        <v>2.612732693773424</v>
       </c>
       <c r="J12">
-        <v>8.335164834915028</v>
+        <v>8.045496758757551</v>
       </c>
       <c r="K12">
-        <v>13.79470442641004</v>
+        <v>13.25003411343528</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>10.88158245508679</v>
       </c>
       <c r="M12">
-        <v>13.32170039846215</v>
+        <v>8.814237923093375</v>
       </c>
       <c r="N12">
-        <v>6.427176624979744</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>10.10379333945198</v>
+        <v>13.25276293048527</v>
       </c>
       <c r="P12">
-        <v>12.2681316952837</v>
+        <v>6.476431073991902</v>
       </c>
       <c r="Q12">
-        <v>13.36977668786754</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>9.964583180522922</v>
+      </c>
+      <c r="R12">
+        <v>12.27347703340936</v>
+      </c>
+      <c r="S12">
+        <v>12.84969397086197</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>14.91926221530506</v>
+        <v>14.62079751335892</v>
       </c>
       <c r="C13">
-        <v>11.00245685542589</v>
+        <v>10.94409834284813</v>
       </c>
       <c r="D13">
-        <v>6.807576094335022</v>
+        <v>6.943935161328514</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>16.73842797010393</v>
+        <v>16.0770269459605</v>
       </c>
       <c r="G13">
-        <v>19.34497896529896</v>
+        <v>19.98219146993124</v>
       </c>
       <c r="H13">
-        <v>5.669618848488854</v>
+        <v>5.658515708610393</v>
       </c>
       <c r="I13">
-        <v>2.543631199929285</v>
+        <v>2.58790438139839</v>
       </c>
       <c r="J13">
-        <v>8.200489298702523</v>
+        <v>7.993870846240034</v>
       </c>
       <c r="K13">
-        <v>13.44289038002117</v>
+        <v>12.96272255340904</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>10.70479966543501</v>
       </c>
       <c r="M13">
-        <v>13.35738306133898</v>
+        <v>8.541417735289478</v>
       </c>
       <c r="N13">
-        <v>5.840613818318015</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>9.334742644082541</v>
+        <v>13.29065573116547</v>
       </c>
       <c r="P13">
-        <v>12.31585837507184</v>
+        <v>5.886907105963973</v>
       </c>
       <c r="Q13">
-        <v>13.0187997667595</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>9.209292502612918</v>
+      </c>
+      <c r="R13">
+        <v>12.33043675163954</v>
+      </c>
+      <c r="S13">
+        <v>12.55175729300962</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>14.59276212637829</v>
+        <v>14.33161030337402</v>
       </c>
       <c r="C14">
-        <v>11.24276764523152</v>
+        <v>11.18964468987839</v>
       </c>
       <c r="D14">
-        <v>6.840388756495875</v>
+        <v>6.9598934384471</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>16.33898455040363</v>
+        <v>15.75751940257535</v>
       </c>
       <c r="G14">
-        <v>18.70019079852763</v>
+        <v>19.04931725633489</v>
       </c>
       <c r="H14">
-        <v>6.667784952733784</v>
+        <v>6.65691725018303</v>
       </c>
       <c r="I14">
-        <v>2.510504453181261</v>
+        <v>2.559540782758188</v>
       </c>
       <c r="J14">
-        <v>8.113689716237763</v>
+        <v>8.02061369985379</v>
       </c>
       <c r="K14">
-        <v>13.22487808809713</v>
+        <v>12.800337166657</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>10.61429008518789</v>
       </c>
       <c r="M14">
-        <v>13.30843923855615</v>
+        <v>8.363959286507647</v>
       </c>
       <c r="N14">
-        <v>5.561387381822874</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>8.768569352427106</v>
+        <v>13.25214062617481</v>
       </c>
       <c r="P14">
-        <v>12.37180609980153</v>
+        <v>5.606443808509575</v>
       </c>
       <c r="Q14">
-        <v>12.77715301096341</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>8.655922295935</v>
+      </c>
+      <c r="R14">
+        <v>12.38586033044098</v>
+      </c>
+      <c r="S14">
+        <v>12.37016476293905</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14.46156458396423</v>
+        <v>14.21443618424699</v>
       </c>
       <c r="C15">
-        <v>11.2931784889893</v>
+        <v>11.2420240958801</v>
       </c>
       <c r="D15">
-        <v>6.832903020999553</v>
+        <v>6.944355530094273</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>16.22170513719673</v>
+        <v>15.67485273876941</v>
       </c>
       <c r="G15">
-        <v>18.52498655893131</v>
+        <v>18.70471221094543</v>
       </c>
       <c r="H15">
-        <v>6.900269896011858</v>
+        <v>6.889092066605585</v>
       </c>
       <c r="I15">
-        <v>2.513225631179739</v>
+        <v>2.548623018109847</v>
       </c>
       <c r="J15">
-        <v>8.095396050099369</v>
+        <v>8.054686426770598</v>
       </c>
       <c r="K15">
-        <v>13.18039232736813</v>
+        <v>12.77394281088169</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>10.60346690300239</v>
       </c>
       <c r="M15">
-        <v>13.26111477060312</v>
+        <v>8.3241077197662</v>
       </c>
       <c r="N15">
-        <v>5.514234684806036</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>8.617046469087054</v>
+        <v>13.21122970063976</v>
       </c>
       <c r="P15">
-        <v>12.39398016908395</v>
+        <v>5.559709233125592</v>
       </c>
       <c r="Q15">
-        <v>12.71852048748201</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>8.508826724031179</v>
+      </c>
+      <c r="R15">
+        <v>12.40516568320998</v>
+      </c>
+      <c r="S15">
+        <v>12.33579153531996</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.01514097191876</v>
+        <v>13.8105207578264</v>
       </c>
       <c r="C16">
-        <v>11.12070170801107</v>
+        <v>11.07026552066093</v>
       </c>
       <c r="D16">
-        <v>6.666960695841591</v>
+        <v>6.745131283941924</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>16.10277290364428</v>
+        <v>15.68128091420542</v>
       </c>
       <c r="G16">
-        <v>18.46712998993145</v>
+        <v>17.84959987522136</v>
       </c>
       <c r="H16">
-        <v>6.699724587224725</v>
+        <v>6.684769386061692</v>
       </c>
       <c r="I16">
-        <v>2.594003470113992</v>
+        <v>2.548951462340967</v>
       </c>
       <c r="J16">
-        <v>8.138675559501586</v>
+        <v>8.320410369656482</v>
       </c>
       <c r="K16">
-        <v>13.28854459468992</v>
+        <v>12.92019858037218</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>10.72805691645832</v>
       </c>
       <c r="M16">
-        <v>12.91401915704181</v>
+        <v>8.375918079947008</v>
       </c>
       <c r="N16">
-        <v>5.532885045462772</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>8.51522549338117</v>
+        <v>12.89642444367794</v>
       </c>
       <c r="P16">
-        <v>12.46107425094769</v>
+        <v>5.58570226682544</v>
       </c>
       <c r="Q16">
-        <v>12.76310052472885</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>8.41818050718045</v>
+      </c>
+      <c r="R16">
+        <v>12.44983121470615</v>
+      </c>
+      <c r="S16">
+        <v>12.46012859741098</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>13.84739993519328</v>
+        <v>13.65203081416851</v>
       </c>
       <c r="C17">
-        <v>10.85317458786414</v>
+        <v>10.79321293104015</v>
       </c>
       <c r="D17">
-        <v>6.51921909078855</v>
+        <v>6.584674711681466</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>16.22940104930819</v>
+        <v>15.84694095871633</v>
       </c>
       <c r="G17">
-        <v>18.77155265864857</v>
+        <v>17.80960300868281</v>
       </c>
       <c r="H17">
-        <v>5.984261519117801</v>
+        <v>5.965474939047359</v>
       </c>
       <c r="I17">
-        <v>2.637738731237077</v>
+        <v>2.587462711854637</v>
       </c>
       <c r="J17">
-        <v>8.218074107358145</v>
+        <v>8.495330811038254</v>
       </c>
       <c r="K17">
-        <v>13.48447436962011</v>
+        <v>13.1150890451915</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>10.87911448303292</v>
       </c>
       <c r="M17">
-        <v>12.669572950509</v>
+        <v>8.500545488551451</v>
       </c>
       <c r="N17">
-        <v>5.671931113757965</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>8.743916968504717</v>
+        <v>12.66686585374329</v>
       </c>
       <c r="P17">
-        <v>12.48398015756831</v>
+        <v>5.73022037017129</v>
       </c>
       <c r="Q17">
-        <v>12.92625505465278</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>8.647962059638841</v>
+      </c>
+      <c r="R17">
+        <v>12.45954265662212</v>
+      </c>
+      <c r="S17">
+        <v>12.64476094642047</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>13.91889329874385</v>
+        <v>13.70875102617596</v>
       </c>
       <c r="C18">
-        <v>10.48918480696309</v>
+        <v>10.41047478647826</v>
       </c>
       <c r="D18">
-        <v>6.369932529479143</v>
+        <v>6.434094005100792</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>16.58880570392293</v>
+        <v>16.19757847405775</v>
       </c>
       <c r="G18">
-        <v>19.43779087619836</v>
+        <v>18.30208839080446</v>
       </c>
       <c r="H18">
-        <v>4.77670741170598</v>
+        <v>4.752542387222103</v>
       </c>
       <c r="I18">
-        <v>2.641467100799029</v>
+        <v>2.587815652521273</v>
       </c>
       <c r="J18">
-        <v>8.340052356539076</v>
+        <v>8.648134091130604</v>
       </c>
       <c r="K18">
-        <v>13.79387530013433</v>
+        <v>13.39659173497969</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>11.08938343433996</v>
       </c>
       <c r="M18">
-        <v>12.4900090890118</v>
+        <v>8.712582552161246</v>
       </c>
       <c r="N18">
-        <v>6.053780399281703</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>9.295429667747436</v>
+        <v>12.49455301420595</v>
       </c>
       <c r="P18">
-        <v>12.47694174229449</v>
+        <v>6.115583182562047</v>
       </c>
       <c r="Q18">
-        <v>13.21652464092107</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>9.193471386079874</v>
+      </c>
+      <c r="R18">
+        <v>12.44242667357736</v>
+      </c>
+      <c r="S18">
+        <v>12.92383192594488</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.15488780944649</v>
+        <v>13.91376116246845</v>
       </c>
       <c r="C19">
-        <v>10.14025931563612</v>
+        <v>10.03499192751209</v>
       </c>
       <c r="D19">
-        <v>6.239383254415878</v>
+        <v>6.309296824214335</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>17.07541318988642</v>
+        <v>16.64667774938478</v>
       </c>
       <c r="G19">
-        <v>20.29484600997669</v>
+        <v>19.06421616719761</v>
       </c>
       <c r="H19">
-        <v>3.378391014792839</v>
+        <v>3.345924780730079</v>
       </c>
       <c r="I19">
-        <v>2.631056217394463</v>
+        <v>2.579856974603276</v>
       </c>
       <c r="J19">
-        <v>8.480370883687655</v>
+        <v>8.783406464150728</v>
       </c>
       <c r="K19">
-        <v>14.16571776586288</v>
+        <v>13.72282729529246</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>11.32856039115318</v>
       </c>
       <c r="M19">
-        <v>12.38019989813078</v>
+        <v>8.973919374410007</v>
       </c>
       <c r="N19">
-        <v>6.746464033098705</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>10.06470161026126</v>
+        <v>12.38776141871507</v>
       </c>
       <c r="P19">
-        <v>12.4571343283173</v>
+        <v>6.809327132294965</v>
       </c>
       <c r="Q19">
-        <v>13.56950776570117</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>9.951952844018855</v>
+      </c>
+      <c r="R19">
+        <v>12.41373398195741</v>
+      </c>
+      <c r="S19">
+        <v>13.24576143272996</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.8666638248329</v>
+        <v>14.55355916289127</v>
       </c>
       <c r="C20">
-        <v>9.807112391125871</v>
+        <v>9.654381986733975</v>
       </c>
       <c r="D20">
-        <v>6.158991672962425</v>
+        <v>6.252192631256004</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>17.94202075117627</v>
+        <v>17.40024571456411</v>
       </c>
       <c r="G20">
-        <v>21.72739544794688</v>
+        <v>20.61136691002724</v>
       </c>
       <c r="H20">
-        <v>2.005394801281407</v>
+        <v>1.964171140088268</v>
       </c>
       <c r="I20">
-        <v>2.544164251926995</v>
+        <v>2.530603166091484</v>
       </c>
       <c r="J20">
-        <v>8.680464166608209</v>
+        <v>8.869824913565418</v>
       </c>
       <c r="K20">
-        <v>14.73009049692189</v>
+        <v>14.18730998389348</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>11.63202240294077</v>
       </c>
       <c r="M20">
-        <v>12.47126047955261</v>
+        <v>9.409857824769908</v>
       </c>
       <c r="N20">
-        <v>8.122052738776613</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>11.39124586759542</v>
+        <v>12.47136750240748</v>
       </c>
       <c r="P20">
-        <v>12.39036481796483</v>
+        <v>8.182753685937225</v>
       </c>
       <c r="Q20">
-        <v>14.11876325251726</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>11.25471321819992</v>
+      </c>
+      <c r="R20">
+        <v>12.33752838383035</v>
+      </c>
+      <c r="S20">
+        <v>13.70829362483128</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.78843763123917</v>
+        <v>15.37998466147952</v>
       </c>
       <c r="C21">
-        <v>9.948322459733646</v>
+        <v>9.798456002204931</v>
       </c>
       <c r="D21">
-        <v>6.410173264903992</v>
+        <v>6.570441028158129</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>18.41588712385596</v>
+        <v>17.58841053088044</v>
       </c>
       <c r="G21">
-        <v>22.29416519406675</v>
+        <v>22.86226370225616</v>
       </c>
       <c r="H21">
-        <v>1.792394837796914</v>
+        <v>1.768819217501822</v>
       </c>
       <c r="I21">
-        <v>2.620814061488934</v>
+        <v>2.658232413744198</v>
       </c>
       <c r="J21">
-        <v>8.683954909654542</v>
+        <v>8.274503755562543</v>
       </c>
       <c r="K21">
-        <v>14.75878897410238</v>
+        <v>14.07182394357005</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>11.43617486654914</v>
       </c>
       <c r="M21">
-        <v>13.07177495270312</v>
+        <v>9.512674092510503</v>
       </c>
       <c r="N21">
-        <v>8.472133999467131</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>11.9522129241664</v>
+        <v>13.00807910358843</v>
       </c>
       <c r="P21">
-        <v>12.23659425910938</v>
+        <v>8.527230958686689</v>
       </c>
       <c r="Q21">
-        <v>14.24315156936947</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>11.78500043773366</v>
+      </c>
+      <c r="R21">
+        <v>12.20305903300126</v>
+      </c>
+      <c r="S21">
+        <v>13.6276576202541</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.35595749598849</v>
+        <v>15.88791966851582</v>
       </c>
       <c r="C22">
-        <v>10.046742455344</v>
+        <v>9.898192512069242</v>
       </c>
       <c r="D22">
-        <v>6.572530016324308</v>
+        <v>6.777493126696397</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>18.71107875229574</v>
+        <v>17.68685900562449</v>
       </c>
       <c r="G22">
-        <v>22.63973476420486</v>
+        <v>24.43835958113903</v>
       </c>
       <c r="H22">
-        <v>1.670306278907555</v>
+        <v>1.657914603068838</v>
       </c>
       <c r="I22">
-        <v>2.708775208092089</v>
+        <v>2.731535072503168</v>
       </c>
       <c r="J22">
-        <v>8.684162991800624</v>
+        <v>7.926914059657462</v>
       </c>
       <c r="K22">
-        <v>14.76803637118178</v>
+        <v>13.98135863349132</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>11.3010606238215</v>
       </c>
       <c r="M22">
-        <v>13.45286617839009</v>
+        <v>9.575681053129715</v>
       </c>
       <c r="N22">
-        <v>8.628358380466539</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>12.2566888125311</v>
+        <v>13.34564020469566</v>
       </c>
       <c r="P22">
-        <v>12.13763907257774</v>
+        <v>8.680399586843581</v>
       </c>
       <c r="Q22">
-        <v>14.31755461571702</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>12.06982761159306</v>
+      </c>
+      <c r="R22">
+        <v>12.11887494886832</v>
+      </c>
+      <c r="S22">
+        <v>13.55789346589764</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.06846368266472</v>
+        <v>15.63683452839504</v>
       </c>
       <c r="C23">
-        <v>9.987181270921036</v>
+        <v>9.840912863841437</v>
       </c>
       <c r="D23">
-        <v>6.482863960568603</v>
+        <v>6.658539339163172</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>18.57038186416071</v>
+        <v>17.67644513490466</v>
       </c>
       <c r="G23">
-        <v>22.48482925732014</v>
+        <v>23.42549484541602</v>
       </c>
       <c r="H23">
-        <v>1.73439218480909</v>
+        <v>1.715527407118572</v>
       </c>
       <c r="I23">
-        <v>2.65666077009498</v>
+        <v>2.686357194409984</v>
       </c>
       <c r="J23">
-        <v>8.68877598465639</v>
+        <v>8.160322652093729</v>
       </c>
       <c r="K23">
-        <v>14.77735530578153</v>
+        <v>14.05427810532279</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>11.38893812360391</v>
       </c>
       <c r="M23">
-        <v>13.25020055474825</v>
+        <v>9.563048485598657</v>
       </c>
       <c r="N23">
-        <v>8.544849995198723</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>12.09958954698042</v>
+        <v>13.17288065620958</v>
       </c>
       <c r="P23">
-        <v>12.19023648646329</v>
+        <v>8.598435316454305</v>
       </c>
       <c r="Q23">
-        <v>14.28993966846138</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>11.92492125518994</v>
+      </c>
+      <c r="R23">
+        <v>12.16211286294325</v>
+      </c>
+      <c r="S23">
+        <v>13.62535199412443</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.90467108709767</v>
+        <v>14.58910390909786</v>
       </c>
       <c r="C24">
-        <v>9.770282176825512</v>
+        <v>9.607223658062081</v>
       </c>
       <c r="D24">
-        <v>6.137216787511882</v>
+        <v>6.23035464027594</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>18.01714514369634</v>
+        <v>17.47321000343353</v>
       </c>
       <c r="G24">
-        <v>21.86337521065553</v>
+        <v>20.72815067142956</v>
       </c>
       <c r="H24">
-        <v>1.984285353345067</v>
+        <v>1.942987734001685</v>
       </c>
       <c r="I24">
-        <v>2.522740589936565</v>
+        <v>2.519946407789305</v>
       </c>
       <c r="J24">
-        <v>8.703763212779796</v>
+        <v>8.895795804663519</v>
       </c>
       <c r="K24">
-        <v>14.79691611617492</v>
+        <v>14.24866226344258</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>11.67786118419756</v>
       </c>
       <c r="M24">
-        <v>12.45314009194885</v>
+        <v>9.457665772923793</v>
       </c>
       <c r="N24">
-        <v>8.222064341097264</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>11.47783592070511</v>
+        <v>12.45388951644011</v>
       </c>
       <c r="P24">
-        <v>12.39228465952375</v>
+        <v>8.282843851154828</v>
       </c>
       <c r="Q24">
-        <v>14.17648988961606</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>11.34040548275567</v>
+      </c>
+      <c r="R24">
+        <v>12.33720865806618</v>
+      </c>
+      <c r="S24">
+        <v>13.76353673558068</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.53217742933169</v>
+        <v>13.29487096600169</v>
       </c>
       <c r="C25">
-        <v>9.52945490469323</v>
+        <v>9.282131635332853</v>
       </c>
       <c r="D25">
-        <v>5.739840754109618</v>
+        <v>5.801664468772445</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>17.43847287199249</v>
+        <v>16.9930129854025</v>
       </c>
       <c r="G25">
-        <v>21.22473839537052</v>
+        <v>20.03484327440117</v>
       </c>
       <c r="H25">
-        <v>2.266785826538184</v>
+        <v>2.207498868256877</v>
       </c>
       <c r="I25">
-        <v>2.744191411730021</v>
+        <v>2.676724200502752</v>
       </c>
       <c r="J25">
-        <v>8.7314997398523</v>
+        <v>8.97422463258515</v>
       </c>
       <c r="K25">
-        <v>14.83479790665052</v>
+        <v>14.34890293860537</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>11.91984835379892</v>
       </c>
       <c r="M25">
-        <v>11.52914299077566</v>
+        <v>9.29683606182591</v>
       </c>
       <c r="N25">
-        <v>7.859455490653818</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>10.76766275441193</v>
+        <v>11.53843560260431</v>
       </c>
       <c r="P25">
-        <v>12.61597326336582</v>
+        <v>7.929043598031014</v>
       </c>
       <c r="Q25">
-        <v>14.07830317519624</v>
+        <v>10.65200607364114</v>
+      </c>
+      <c r="R25">
+        <v>12.54064305513155</v>
+      </c>
+      <c r="S25">
+        <v>13.73310328030115</v>
       </c>
     </row>
   </sheetData>
